--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -538,49 +538,49 @@
         <v>9478</v>
       </c>
       <c r="D2" t="n">
-        <v>9453</v>
+        <v>9459</v>
       </c>
       <c r="E2" t="n">
-        <v>8370</v>
+        <v>8367</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8854331958108537</v>
+        <v>0.8845543926419284</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8830976999366955</v>
+        <v>0.8827811774636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09588380880107245</v>
+        <v>0.09590404283678339</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08467477101339696</v>
+        <v>0.08466228385897516</v>
       </c>
       <c r="J2" t="n">
-        <v>40683573.30702042</v>
+        <v>40698145.31691629</v>
       </c>
       <c r="K2" t="n">
-        <v>14146954.60016621</v>
+        <v>14154240.60511414</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14146954.60016621</v>
+        <v>14154240.60511414</v>
       </c>
       <c r="N2" t="n">
-        <v>54830527.90718663</v>
+        <v>54852385.92203042</v>
       </c>
       <c r="O2" t="n">
-        <v>800605047.7172</v>
+        <v>801445750.0172</v>
       </c>
       <c r="P2" t="n">
-        <v>782905240.7132001</v>
+        <v>783745943.0132</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01767032900992073</v>
+        <v>0.01766088422679935</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01806981721987046</v>
+        <v>0.01805973061971659</v>
       </c>
     </row>
     <row r="3">
@@ -596,49 +596,49 @@
         <v>9666</v>
       </c>
       <c r="D3" t="n">
-        <v>9645</v>
+        <v>9637</v>
       </c>
       <c r="E3" t="n">
-        <v>8566</v>
+        <v>8559</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8881285640228097</v>
+        <v>0.8881394624883262</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8861990482102214</v>
+        <v>0.8854748603351955</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09426000800759959</v>
+        <v>0.09414955439058634</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0835331293806226</v>
+        <v>0.08336706352462532</v>
       </c>
       <c r="J3" t="n">
-        <v>42503835.53294694</v>
+        <v>42370594.43989093</v>
       </c>
       <c r="K3" t="n">
-        <v>14787168.70621267</v>
+        <v>14720548.15968467</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14787168.70621267</v>
+        <v>14720548.15968467</v>
       </c>
       <c r="N3" t="n">
-        <v>57291004.23915961</v>
+        <v>57091142.59957561</v>
       </c>
       <c r="O3" t="n">
-        <v>837916296.6930281</v>
+        <v>836286487.948328</v>
       </c>
       <c r="P3" t="n">
-        <v>820436120.6689579</v>
+        <v>818806311.924258</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01764754876420547</v>
+        <v>0.01760227908954833</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01802354666461501</v>
+        <v>0.0179780589686592</v>
       </c>
     </row>
     <row r="4">
@@ -654,49 +654,49 @@
         <v>9858</v>
       </c>
       <c r="D4" t="n">
-        <v>9832</v>
+        <v>9838</v>
       </c>
       <c r="E4" t="n">
-        <v>8735</v>
+        <v>8733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8884255492270138</v>
+        <v>0.8876804228501728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.886082369649016</v>
+        <v>0.8858794887401096</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09299641123507345</v>
+        <v>0.09295468746118477</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08240248043602824</v>
+        <v>0.08234665100411104</v>
       </c>
       <c r="J4" t="n">
-        <v>44349172.10058596</v>
+        <v>44324690.6429288</v>
       </c>
       <c r="K4" t="n">
-        <v>15389914.85936836</v>
+        <v>15377674.13053978</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15389914.85936836</v>
+        <v>15377674.13053978</v>
       </c>
       <c r="N4" t="n">
-        <v>59739086.95995432</v>
+        <v>59702364.77346857</v>
       </c>
       <c r="O4" t="n">
-        <v>874551910.723475</v>
+        <v>875462780.5151056</v>
       </c>
       <c r="P4" t="n">
-        <v>857102962.7175211</v>
+        <v>858013832.5091518</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01759748583321603</v>
+        <v>0.01756519462939572</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01795573639201207</v>
+        <v>0.01792240818026178</v>
       </c>
     </row>
     <row r="5">
@@ -712,49 +712,49 @@
         <v>10054</v>
       </c>
       <c r="D5" t="n">
-        <v>10036</v>
+        <v>10033</v>
       </c>
       <c r="E5" t="n">
-        <v>8932</v>
+        <v>8917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.889996014348346</v>
+        <v>0.8887670686733778</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8884026258205689</v>
+        <v>0.8869106823154963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09156419815045283</v>
+        <v>0.0915457106288796</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08134587406801719</v>
+        <v>0.08119286867691659</v>
       </c>
       <c r="J5" t="n">
-        <v>46337616.22484795</v>
+        <v>46252928.80369589</v>
       </c>
       <c r="K5" t="n">
-        <v>16051063.21331039</v>
+        <v>16008719.50273435</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16051063.21331039</v>
+        <v>16008719.50273435</v>
       </c>
       <c r="N5" t="n">
-        <v>62388679.43815833</v>
+        <v>62261648.30643024</v>
       </c>
       <c r="O5" t="n">
-        <v>913766845.3762347</v>
+        <v>914819837.8515847</v>
       </c>
       <c r="P5" t="n">
-        <v>896280739.9132615</v>
+        <v>897333732.3886114</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01756581921803205</v>
+        <v>0.01749931389805685</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01790852184870529</v>
+        <v>0.01784031840653172</v>
       </c>
     </row>
     <row r="6">
@@ -770,49 +770,49 @@
         <v>10254</v>
       </c>
       <c r="D6" t="n">
-        <v>10233</v>
+        <v>10220</v>
       </c>
       <c r="E6" t="n">
-        <v>9093</v>
+        <v>9059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8885957197302844</v>
+        <v>0.886399217221135</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8867758923346987</v>
+        <v>0.8834601131265848</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09047387773774557</v>
+        <v>0.09057818461513951</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08023005366386975</v>
+        <v>0.08002221322689183</v>
       </c>
       <c r="J6" t="n">
-        <v>48397322.24827884</v>
+        <v>48283872.6099349</v>
       </c>
       <c r="K6" t="n">
-        <v>16709871.56519883</v>
+        <v>16653146.74602686</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>16709871.56519883</v>
+        <v>16653146.74602686</v>
       </c>
       <c r="N6" t="n">
-        <v>65107193.81347767</v>
+        <v>64937019.35596175</v>
       </c>
       <c r="O6" t="n">
-        <v>954891245.1222031</v>
+        <v>955659491.8934135</v>
       </c>
       <c r="P6" t="n">
-        <v>937299419.2490215</v>
+        <v>938067666.020232</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01749924051619131</v>
+        <v>0.01742581629470616</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01782767728436984</v>
+        <v>0.01775260714046154</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>9478</v>
       </c>
       <c r="D7" t="n">
-        <v>9447</v>
+        <v>9444</v>
       </c>
       <c r="E7" t="n">
-        <v>8374</v>
+        <v>8346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8864189689848629</v>
+        <v>0.8837357052096569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8835197299008229</v>
+        <v>0.8805655201519308</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09681583147536164</v>
+        <v>0.0970076441535767</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0855386972752351</v>
+        <v>0.08542158663280766</v>
       </c>
       <c r="J7" t="n">
-        <v>41174860.32985197</v>
+        <v>41076824.4099903</v>
       </c>
       <c r="K7" t="n">
-        <v>14390491.49810799</v>
+        <v>14343580.15165115</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14390491.49810799</v>
+        <v>14343580.15165115</v>
       </c>
       <c r="N7" t="n">
-        <v>55565351.82795996</v>
+        <v>55420404.56164145</v>
       </c>
       <c r="O7" t="n">
-        <v>799515284.2372</v>
+        <v>798913812.9572001</v>
       </c>
       <c r="P7" t="n">
-        <v>781815477.2332001</v>
+        <v>781214005.9532001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01799901988345056</v>
+        <v>0.01795385174097568</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01840650628845966</v>
+        <v>0.01836062851196554</v>
       </c>
     </row>
     <row r="8">
@@ -886,49 +886,49 @@
         <v>9666</v>
       </c>
       <c r="D8" t="n">
-        <v>9645</v>
+        <v>9640</v>
       </c>
       <c r="E8" t="n">
-        <v>8563</v>
+        <v>8568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.887817522032141</v>
+        <v>0.8887966804979253</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8858886819780675</v>
+        <v>0.8864059590316573</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09539772302800158</v>
+        <v>0.09542172038036506</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08451176311698505</v>
+        <v>0.08458238156620813</v>
       </c>
       <c r="J8" t="n">
-        <v>43125250.93561375</v>
+        <v>43142786.81432747</v>
       </c>
       <c r="K8" t="n">
-        <v>15095706.59566786</v>
+        <v>15106644.34690293</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15095706.59566786</v>
+        <v>15106644.34690293</v>
       </c>
       <c r="N8" t="n">
-        <v>58220957.53128161</v>
+        <v>58249431.1612304</v>
       </c>
       <c r="O8" t="n">
-        <v>837887628.1232281</v>
+        <v>837045574.001528</v>
       </c>
       <c r="P8" t="n">
-        <v>820407452.099158</v>
+        <v>819565397.977458</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01801638559752995</v>
+        <v>0.01804757687766635</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01840025533293586</v>
+        <v>0.01843250628221183</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>9858</v>
       </c>
       <c r="D9" t="n">
-        <v>9842</v>
+        <v>9845</v>
       </c>
       <c r="E9" t="n">
-        <v>8755</v>
+        <v>8756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.889554968502337</v>
+        <v>0.8893854748603351</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8881111787380808</v>
+        <v>0.888212619192534</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09419949378696643</v>
+        <v>0.09412919338671218</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08365962346367327</v>
+        <v>0.08360673740049218</v>
       </c>
       <c r="J9" t="n">
-        <v>45180622.83051215</v>
+        <v>45118047.21266638</v>
       </c>
       <c r="K9" t="n">
-        <v>15803405.31809689</v>
+        <v>15774352.41540857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>15803405.31809689</v>
+        <v>15774352.41540857</v>
       </c>
       <c r="N9" t="n">
-        <v>60984028.14860904</v>
+        <v>60892399.62807495</v>
       </c>
       <c r="O9" t="n">
-        <v>875120136.5024129</v>
+        <v>874986044.7346259</v>
       </c>
       <c r="P9" t="n">
-        <v>857671188.4964591</v>
+        <v>857537096.7286721</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01805855523020903</v>
+        <v>0.01802811886010453</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01842594869696049</v>
+        <v>0.0183949504640493</v>
       </c>
     </row>
     <row r="10">
@@ -1002,49 +1002,49 @@
         <v>10054</v>
       </c>
       <c r="D10" t="n">
-        <v>10024</v>
+        <v>10031</v>
       </c>
       <c r="E10" t="n">
-        <v>8885</v>
+        <v>8913</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8863727055067837</v>
+        <v>0.8885455089223407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8837278695046747</v>
+        <v>0.8865128307141437</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09334574158803877</v>
+        <v>0.09321308070362111</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08249223334093142</v>
+        <v>0.08263459203415308</v>
       </c>
       <c r="J10" t="n">
-        <v>47130445.73264639</v>
+        <v>47213184.81612386</v>
       </c>
       <c r="K10" t="n">
-        <v>16445176.013788</v>
+        <v>16488847.50894834</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16445176.013788</v>
+        <v>16488847.50894834</v>
       </c>
       <c r="N10" t="n">
-        <v>63575621.7464344</v>
+        <v>63702032.3250722</v>
       </c>
       <c r="O10" t="n">
-        <v>913371970.5379409</v>
+        <v>914432692.5229203</v>
       </c>
       <c r="P10" t="n">
-        <v>895885865.0749676</v>
+        <v>896946587.059947</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01800490549770476</v>
+        <v>0.01803177822028169</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01835632936614294</v>
+        <v>0.01838331038528866</v>
       </c>
     </row>
     <row r="11">
@@ -1060,49 +1060,49 @@
         <v>10254</v>
       </c>
       <c r="D11" t="n">
-        <v>10235</v>
+        <v>10225</v>
       </c>
       <c r="E11" t="n">
-        <v>9103</v>
+        <v>9080</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8893991206643869</v>
+        <v>0.8880195599022005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8877511215135557</v>
+        <v>0.8855080944021845</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09209148262974684</v>
+        <v>0.09213732329015105</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08175431698640388</v>
+        <v>0.08158834556997968</v>
       </c>
       <c r="J11" t="n">
-        <v>49481204.14574344</v>
+        <v>49406731.03858929</v>
       </c>
       <c r="K11" t="n">
-        <v>17249441.50190688</v>
+        <v>17214575.96035406</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>17249441.50190688</v>
+        <v>17214575.96035406</v>
       </c>
       <c r="N11" t="n">
-        <v>66730645.64765032</v>
+        <v>66621306.99894334</v>
       </c>
       <c r="O11" t="n">
-        <v>954978001.9095395</v>
+        <v>956127888.2484893</v>
       </c>
       <c r="P11" t="n">
-        <v>937386176.0363579</v>
+        <v>938536062.3753077</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01806265847738432</v>
+        <v>0.01800447008390172</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01840163845262194</v>
+        <v>0.01834194406636469</v>
       </c>
     </row>
     <row r="12">
@@ -1118,49 +1118,49 @@
         <v>9478</v>
       </c>
       <c r="D12" t="n">
-        <v>9459</v>
+        <v>9455</v>
       </c>
       <c r="E12" t="n">
-        <v>8396</v>
+        <v>8375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.887620255840998</v>
+        <v>0.8857747223691169</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8858408947035239</v>
+        <v>0.8836252373918548</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09668375143367978</v>
+        <v>0.09689384242872673</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08564642087330401</v>
+        <v>0.08561784451789264</v>
       </c>
       <c r="J12" t="n">
-        <v>41289012.09786491</v>
+        <v>41234906.25223832</v>
       </c>
       <c r="K12" t="n">
-        <v>14448077.45109245</v>
+        <v>14421586.78406116</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14448077.45109245</v>
+        <v>14421586.78406116</v>
       </c>
       <c r="N12" t="n">
-        <v>55737089.54895736</v>
+        <v>55656493.03629947</v>
       </c>
       <c r="O12" t="n">
-        <v>801867174.6472001</v>
+        <v>800568137.6472001</v>
       </c>
       <c r="P12" t="n">
-        <v>784167367.6432</v>
+        <v>782868330.6432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01801804327187881</v>
+        <v>0.018014190305456</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01842473692129765</v>
+        <v>0.01842147168248901</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>9666</v>
       </c>
       <c r="D13" t="n">
-        <v>9648</v>
+        <v>9647</v>
       </c>
       <c r="E13" t="n">
-        <v>8564</v>
+        <v>8557</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8876451077943616</v>
+        <v>0.8870115061677205</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8859921373887855</v>
+        <v>0.8852679495137595</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1019731364521253</v>
+        <v>0.1020477647857244</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09034739712145676</v>
+        <v>0.09033961548432071</v>
       </c>
       <c r="J13" t="n">
-        <v>48113730.21848053</v>
+        <v>48109582.45102569</v>
       </c>
       <c r="K13" t="n">
-        <v>17590471.60814859</v>
+        <v>17588976.84787663</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17590471.60814859</v>
+        <v>17588976.84787663</v>
       </c>
       <c r="N13" t="n">
-        <v>65704201.82662913</v>
+        <v>65698559.29890232</v>
       </c>
       <c r="O13" t="n">
-        <v>838090574.9417281</v>
+        <v>838121313.564728</v>
       </c>
       <c r="P13" t="n">
-        <v>820610398.917658</v>
+        <v>820641137.540658</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02098874767726823</v>
+        <v>0.02098619443653873</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02143583804366786</v>
+        <v>0.0214332136707017</v>
       </c>
     </row>
     <row r="14">
@@ -1234,49 +1234,49 @@
         <v>9858</v>
       </c>
       <c r="D14" t="n">
-        <v>9838</v>
+        <v>9840</v>
       </c>
       <c r="E14" t="n">
-        <v>8719</v>
+        <v>8723</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8862573693840211</v>
+        <v>0.8864837398373984</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8844593223777643</v>
+        <v>0.8848650841955772</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1062951315653054</v>
+        <v>0.1062957128902854</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09401372003630526</v>
+        <v>0.09405736493629131</v>
       </c>
       <c r="J14" t="n">
-        <v>54572877.58804671</v>
+        <v>54616763.50503325</v>
       </c>
       <c r="K14" t="n">
-        <v>20500073.82904293</v>
+        <v>20522613.28469532</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>20500073.82904293</v>
+        <v>20522613.28469532</v>
       </c>
       <c r="N14" t="n">
-        <v>75072951.41708964</v>
+        <v>75139376.78972858</v>
       </c>
       <c r="O14" t="n">
-        <v>875624633.6923679</v>
+        <v>876530452.3962009</v>
       </c>
       <c r="P14" t="n">
-        <v>858175685.6864141</v>
+        <v>859081504.3902471</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02341194278945468</v>
+        <v>0.02341346296479713</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02388796859543496</v>
+        <v>0.02388901772394893</v>
       </c>
     </row>
     <row r="15">
@@ -1292,49 +1292,49 @@
         <v>10054</v>
       </c>
       <c r="D15" t="n">
-        <v>10027</v>
+        <v>10032</v>
       </c>
       <c r="E15" t="n">
-        <v>8900</v>
+        <v>8909</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8876034706293009</v>
+        <v>0.8880582137161085</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8852198130097474</v>
+        <v>0.8861149791127909</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1095103629387546</v>
+        <v>0.1093961613107875</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0969407430032739</v>
+        <v>0.09693757719492795</v>
       </c>
       <c r="J15" t="n">
-        <v>60694383.83057234</v>
+        <v>60672123.38640694</v>
       </c>
       <c r="K15" t="n">
-        <v>23227702.42889509</v>
+        <v>23217186.5988863</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>23227702.42889509</v>
+        <v>23217186.5988863</v>
       </c>
       <c r="N15" t="n">
-        <v>83922086.25946742</v>
+        <v>83889309.98529324</v>
       </c>
       <c r="O15" t="n">
-        <v>914123490.6623945</v>
+        <v>914302919.6242424</v>
       </c>
       <c r="P15" t="n">
-        <v>896637385.1994213</v>
+        <v>896816814.1612692</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0254098080469016</v>
+        <v>0.02539331998242774</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02590534681277986</v>
+        <v>0.02588843812055389</v>
       </c>
     </row>
     <row r="16">
@@ -1350,49 +1350,49 @@
         <v>10254</v>
       </c>
       <c r="D16" t="n">
-        <v>10233</v>
+        <v>10235</v>
       </c>
       <c r="E16" t="n">
-        <v>9083</v>
+        <v>9057</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8876184892016027</v>
+        <v>0.884904738641915</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8858006631558416</v>
+        <v>0.8832650672908133</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1088021642591696</v>
+        <v>0.1090150774465601</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09637702925356322</v>
+        <v>0.0962892097165491</v>
       </c>
       <c r="J16" t="n">
-        <v>63966942.7227219</v>
+        <v>63804904.40937157</v>
       </c>
       <c r="K16" t="n">
-        <v>24492884.87752456</v>
+        <v>24412498.54468551</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>24492884.87752456</v>
+        <v>24412498.54468551</v>
       </c>
       <c r="N16" t="n">
-        <v>88459827.60024647</v>
+        <v>88217402.95405708</v>
       </c>
       <c r="O16" t="n">
-        <v>957320807.0430477</v>
+        <v>955199529.3546511</v>
       </c>
       <c r="P16" t="n">
-        <v>939728981.1698662</v>
+        <v>937607703.4814696</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02558482454087431</v>
+        <v>0.02555748594346461</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02606377516103998</v>
+        <v>0.02603700721958497</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -538,49 +538,49 @@
         <v>9478</v>
       </c>
       <c r="D2" t="n">
-        <v>9459</v>
+        <v>9448</v>
       </c>
       <c r="E2" t="n">
-        <v>8367</v>
+        <v>7574</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8845543926419284</v>
+        <v>0.8016511430990686</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8827811774636</v>
+        <v>0.7991137370753324</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09590404283678339</v>
+        <v>0.1028346976498548</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08466228385897516</v>
+        <v>0.08217661953998734</v>
       </c>
       <c r="J2" t="n">
-        <v>40698145.31691629</v>
+        <v>39239770.164845</v>
       </c>
       <c r="K2" t="n">
-        <v>14154240.60511414</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14154240.60511414</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="N2" t="n">
-        <v>54852385.92203042</v>
+        <v>52659991.0066035</v>
       </c>
       <c r="O2" t="n">
-        <v>801445750.0172</v>
+        <v>801375021.0472001</v>
       </c>
       <c r="P2" t="n">
-        <v>783745943.0132</v>
+        <v>783675214.0432</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01766088422679935</v>
+        <v>0.01674649257749708</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01805973061971659</v>
+        <v>0.01712472284598593</v>
       </c>
     </row>
     <row r="3">
@@ -596,49 +596,49 @@
         <v>9666</v>
       </c>
       <c r="D3" t="n">
-        <v>9637</v>
+        <v>9640</v>
       </c>
       <c r="E3" t="n">
-        <v>8559</v>
+        <v>7551</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8881394624883262</v>
+        <v>0.783298755186722</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8854748603351955</v>
+        <v>0.7811918063314711</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09414955439058634</v>
+        <v>0.1028830618461131</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08336706352462532</v>
+        <v>0.08037140492447756</v>
       </c>
       <c r="J3" t="n">
-        <v>42370594.43989093</v>
+        <v>40538728.96122567</v>
       </c>
       <c r="K3" t="n">
-        <v>14720548.15968467</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14720548.15968467</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="N3" t="n">
-        <v>57091142.59957561</v>
+        <v>54338367.2286381</v>
       </c>
       <c r="O3" t="n">
-        <v>836286487.948328</v>
+        <v>836150914.9537281</v>
       </c>
       <c r="P3" t="n">
-        <v>818806311.924258</v>
+        <v>818670738.9296581</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01760227908954833</v>
+        <v>0.01650376507472469</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0179780589686592</v>
+        <v>0.01685615182173761</v>
       </c>
     </row>
     <row r="4">
@@ -654,49 +654,49 @@
         <v>9858</v>
       </c>
       <c r="D4" t="n">
-        <v>9838</v>
+        <v>9834</v>
       </c>
       <c r="E4" t="n">
-        <v>8733</v>
+        <v>7543</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8876804228501728</v>
+        <v>0.7670327435428107</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8858794887401096</v>
+        <v>0.7651653479407587</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09295468746118477</v>
+        <v>0.1029497547394936</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08234665100411104</v>
+        <v>0.07877358490566039</v>
       </c>
       <c r="J4" t="n">
-        <v>44324690.6429288</v>
+        <v>42014448.3095379</v>
       </c>
       <c r="K4" t="n">
-        <v>15377674.13053978</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15377674.13053978</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="N4" t="n">
-        <v>59702364.77346857</v>
+        <v>56231874.80585443</v>
       </c>
       <c r="O4" t="n">
-        <v>875462780.5151056</v>
+        <v>875322312.16536</v>
       </c>
       <c r="P4" t="n">
-        <v>858013832.5091518</v>
+        <v>857873364.1594061</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01756519462939572</v>
+        <v>0.0162425043880644</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01792240818026178</v>
+        <v>0.01657287321217578</v>
       </c>
     </row>
     <row r="5">
@@ -712,49 +712,49 @@
         <v>10054</v>
       </c>
       <c r="D5" t="n">
-        <v>10033</v>
+        <v>10026</v>
       </c>
       <c r="E5" t="n">
-        <v>8917</v>
+        <v>7534</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8887670686733778</v>
+        <v>0.7514462397765809</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8869106823154963</v>
+        <v>0.7493534911478019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0915457106288796</v>
+        <v>0.1030222989116007</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08119286867691659</v>
+        <v>0.07720011935548041</v>
       </c>
       <c r="J5" t="n">
-        <v>46252928.80369589</v>
+        <v>43535019.83059579</v>
       </c>
       <c r="K5" t="n">
-        <v>16008719.50273435</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16008719.50273435</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="N5" t="n">
-        <v>62261648.30643024</v>
+        <v>58179504.58522647</v>
       </c>
       <c r="O5" t="n">
-        <v>914819837.8515847</v>
+        <v>914181328.8136762</v>
       </c>
       <c r="P5" t="n">
-        <v>897333732.3886114</v>
+        <v>896695223.350703</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01749931389805685</v>
+        <v>0.01601923414213095</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01784031840653172</v>
+        <v>0.01633161900863961</v>
       </c>
     </row>
     <row r="6">
@@ -770,49 +770,49 @@
         <v>10254</v>
       </c>
       <c r="D6" t="n">
-        <v>10220</v>
+        <v>10237</v>
       </c>
       <c r="E6" t="n">
-        <v>9059</v>
+        <v>7523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.886399217221135</v>
+        <v>0.7348832665820064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8834601131265848</v>
+        <v>0.7336649112541447</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09057818461513951</v>
+        <v>0.1030931809118703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08002221322689183</v>
+        <v>0.07563584942461479</v>
       </c>
       <c r="J6" t="n">
-        <v>48283872.6099349</v>
+        <v>45146428.42506469</v>
       </c>
       <c r="K6" t="n">
-        <v>16653146.74602686</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>16653146.74602686</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="N6" t="n">
-        <v>64937019.35596175</v>
+        <v>60225414.4092562</v>
       </c>
       <c r="O6" t="n">
-        <v>955659491.8934135</v>
+        <v>955175919.0364679</v>
       </c>
       <c r="P6" t="n">
-        <v>938067666.020232</v>
+        <v>937584093.1632864</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01742581629470616</v>
+        <v>0.01578660609388313</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01775260714046154</v>
+        <v>0.01608280909855989</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>9478</v>
       </c>
       <c r="D7" t="n">
-        <v>9444</v>
+        <v>9448</v>
       </c>
       <c r="E7" t="n">
-        <v>8346</v>
+        <v>7574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8837357052096569</v>
+        <v>0.8016511430990686</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8805655201519308</v>
+        <v>0.7991137370753324</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0970076441535767</v>
+        <v>0.1028346976498548</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08542158663280766</v>
+        <v>0.08217661953998734</v>
       </c>
       <c r="J7" t="n">
-        <v>41076824.4099903</v>
+        <v>39239770.164845</v>
       </c>
       <c r="K7" t="n">
-        <v>14343580.15165115</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14343580.15165115</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="N7" t="n">
-        <v>55420404.56164145</v>
+        <v>52659991.0066035</v>
       </c>
       <c r="O7" t="n">
-        <v>798913812.9572001</v>
+        <v>800637542.8872001</v>
       </c>
       <c r="P7" t="n">
-        <v>781214005.9532001</v>
+        <v>782937735.8832</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01795385174097568</v>
+        <v>0.01676191800020205</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01836062851196554</v>
+        <v>0.01714085325906497</v>
       </c>
     </row>
     <row r="8">
@@ -886,49 +886,49 @@
         <v>9666</v>
       </c>
       <c r="D8" t="n">
-        <v>9640</v>
+        <v>9645</v>
       </c>
       <c r="E8" t="n">
-        <v>8568</v>
+        <v>7551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8887966804979253</v>
+        <v>0.7828926905132193</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8864059590316573</v>
+        <v>0.7811918063314711</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09542172038036506</v>
+        <v>0.1028830618461131</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08458238156620813</v>
+        <v>0.08037140492447756</v>
       </c>
       <c r="J8" t="n">
-        <v>43142786.81432747</v>
+        <v>40538728.96122567</v>
       </c>
       <c r="K8" t="n">
-        <v>15106644.34690293</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15106644.34690293</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="N8" t="n">
-        <v>58249431.1612304</v>
+        <v>54338367.2286381</v>
       </c>
       <c r="O8" t="n">
-        <v>837045574.001528</v>
+        <v>837666957.2402281</v>
       </c>
       <c r="P8" t="n">
-        <v>819565397.977458</v>
+        <v>820186781.216158</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01804757687766635</v>
+        <v>0.01647389591786768</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01843250628221183</v>
+        <v>0.01682499472492178</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>9858</v>
       </c>
       <c r="D9" t="n">
-        <v>9845</v>
+        <v>9841</v>
       </c>
       <c r="E9" t="n">
-        <v>8756</v>
+        <v>7543</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8893854748603351</v>
+        <v>0.766487145615283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.888212619192534</v>
+        <v>0.7651653479407587</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09412919338671218</v>
+        <v>0.1029497547394936</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08360673740049218</v>
+        <v>0.07877358490566039</v>
       </c>
       <c r="J9" t="n">
-        <v>45118047.21266638</v>
+        <v>42014448.3095379</v>
       </c>
       <c r="K9" t="n">
-        <v>15774352.41540857</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>15774352.41540857</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="N9" t="n">
-        <v>60892399.62807495</v>
+        <v>56231874.80585443</v>
       </c>
       <c r="O9" t="n">
-        <v>874986044.7346259</v>
+        <v>875577079.980539</v>
       </c>
       <c r="P9" t="n">
-        <v>857537096.7286721</v>
+        <v>858128131.9745851</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01802811886010453</v>
+        <v>0.01623777828518826</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0183949504640493</v>
+        <v>0.01656795292749779</v>
       </c>
     </row>
     <row r="10">
@@ -1002,49 +1002,49 @@
         <v>10054</v>
       </c>
       <c r="D10" t="n">
-        <v>10031</v>
+        <v>10035</v>
       </c>
       <c r="E10" t="n">
-        <v>8913</v>
+        <v>7534</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8885455089223407</v>
+        <v>0.7507722969606377</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8865128307141437</v>
+        <v>0.7493534911478019</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09321308070362111</v>
+        <v>0.1030222989116007</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08263459203415308</v>
+        <v>0.07720011935548041</v>
       </c>
       <c r="J10" t="n">
-        <v>47213184.81612386</v>
+        <v>43535019.83059579</v>
       </c>
       <c r="K10" t="n">
-        <v>16488847.50894834</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16488847.50894834</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="N10" t="n">
-        <v>63702032.3250722</v>
+        <v>58179504.58522647</v>
       </c>
       <c r="O10" t="n">
-        <v>914432692.5229203</v>
+        <v>913946124.0779107</v>
       </c>
       <c r="P10" t="n">
-        <v>896946587.059947</v>
+        <v>896460018.6149374</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01803177822028169</v>
+        <v>0.01602335670431958</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01838331038528866</v>
+        <v>0.01633590394500464</v>
       </c>
     </row>
     <row r="11">
@@ -1060,49 +1060,49 @@
         <v>10254</v>
       </c>
       <c r="D11" t="n">
-        <v>10225</v>
+        <v>10229</v>
       </c>
       <c r="E11" t="n">
-        <v>9080</v>
+        <v>7523</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8880195599022005</v>
+        <v>0.7354580115358295</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8855080944021845</v>
+        <v>0.7336649112541447</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09213732329015105</v>
+        <v>0.1030931809118703</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08158834556997968</v>
+        <v>0.07563584942461479</v>
       </c>
       <c r="J11" t="n">
-        <v>49406731.03858929</v>
+        <v>45146428.42506469</v>
       </c>
       <c r="K11" t="n">
-        <v>17214575.96035406</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>17214575.96035406</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="N11" t="n">
-        <v>66621306.99894334</v>
+        <v>60225414.4092562</v>
       </c>
       <c r="O11" t="n">
-        <v>956127888.2484893</v>
+        <v>954343579.3721293</v>
       </c>
       <c r="P11" t="n">
-        <v>938536062.3753077</v>
+        <v>936751753.4989479</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01800447008390172</v>
+        <v>0.01580037452980206</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01834194406636469</v>
+        <v>0.01609709928790484</v>
       </c>
     </row>
     <row r="12">
@@ -1118,49 +1118,49 @@
         <v>9478</v>
       </c>
       <c r="D12" t="n">
-        <v>9455</v>
+        <v>9458</v>
       </c>
       <c r="E12" t="n">
-        <v>8375</v>
+        <v>7574</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8857747223691169</v>
+        <v>0.8008035525481074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8836252373918548</v>
+        <v>0.7991137370753324</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09689384242872673</v>
+        <v>0.1028346976498548</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08561784451789264</v>
+        <v>0.08217661953998734</v>
       </c>
       <c r="J12" t="n">
-        <v>41234906.25223832</v>
+        <v>39239770.164845</v>
       </c>
       <c r="K12" t="n">
-        <v>14421586.78406116</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14421586.78406116</v>
+        <v>13420220.8417585</v>
       </c>
       <c r="N12" t="n">
-        <v>55656493.03629947</v>
+        <v>52659991.0066035</v>
       </c>
       <c r="O12" t="n">
-        <v>800568137.6472001</v>
+        <v>800122294.0972</v>
       </c>
       <c r="P12" t="n">
-        <v>782868330.6432</v>
+        <v>782422487.0932001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.018014190305456</v>
+        <v>0.0167727120476013</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01842147168248901</v>
+        <v>0.01715214102756216</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>9666</v>
       </c>
       <c r="D13" t="n">
-        <v>9647</v>
+        <v>9637</v>
       </c>
       <c r="E13" t="n">
-        <v>8557</v>
+        <v>7551</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8870115061677205</v>
+        <v>0.7835425962436443</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8852679495137595</v>
+        <v>0.7811918063314711</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1020477647857244</v>
+        <v>0.1028830618461131</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09033961548432071</v>
+        <v>0.08037140492447756</v>
       </c>
       <c r="J13" t="n">
-        <v>48109582.45102569</v>
+        <v>40538728.96122567</v>
       </c>
       <c r="K13" t="n">
-        <v>17588976.84787663</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17588976.84787663</v>
+        <v>13799638.26741243</v>
       </c>
       <c r="N13" t="n">
-        <v>65698559.29890232</v>
+        <v>54338367.2286381</v>
       </c>
       <c r="O13" t="n">
-        <v>838121313.564728</v>
+        <v>835784763.7231281</v>
       </c>
       <c r="P13" t="n">
-        <v>820641137.540658</v>
+        <v>818304587.6990581</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02098619443653873</v>
+        <v>0.01651099525425647</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0214332136707017</v>
+        <v>0.01686369412423168</v>
       </c>
     </row>
     <row r="14">
@@ -1237,46 +1237,46 @@
         <v>9840</v>
       </c>
       <c r="E14" t="n">
-        <v>8723</v>
+        <v>7543</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8864837398373984</v>
+        <v>0.7665650406504065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8848650841955772</v>
+        <v>0.7651653479407587</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1062957128902854</v>
+        <v>0.1029497547394936</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09405736493629131</v>
+        <v>0.07877358490566039</v>
       </c>
       <c r="J14" t="n">
-        <v>54616763.50503325</v>
+        <v>42014448.3095379</v>
       </c>
       <c r="K14" t="n">
-        <v>20522613.28469532</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>20522613.28469532</v>
+        <v>14217426.49631654</v>
       </c>
       <c r="N14" t="n">
-        <v>75139376.78972858</v>
+        <v>56231874.80585443</v>
       </c>
       <c r="O14" t="n">
-        <v>876530452.3962009</v>
+        <v>874054288.5903099</v>
       </c>
       <c r="P14" t="n">
-        <v>859081504.3902471</v>
+        <v>856605340.5843561</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02341346296479713</v>
+        <v>0.01626606800276291</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02388901772394893</v>
+        <v>0.01659740585625785</v>
       </c>
     </row>
     <row r="15">
@@ -1292,49 +1292,49 @@
         <v>10054</v>
       </c>
       <c r="D15" t="n">
-        <v>10032</v>
+        <v>10034</v>
       </c>
       <c r="E15" t="n">
-        <v>8909</v>
+        <v>7534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8880582137161085</v>
+        <v>0.7508471197927048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8861149791127909</v>
+        <v>0.7493534911478019</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1093961613107875</v>
+        <v>0.1030222989116007</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09693757719492795</v>
+        <v>0.07720011935548041</v>
       </c>
       <c r="J15" t="n">
-        <v>60672123.38640694</v>
+        <v>43535019.83059579</v>
       </c>
       <c r="K15" t="n">
-        <v>23217186.5988863</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>23217186.5988863</v>
+        <v>14644484.75463068</v>
       </c>
       <c r="N15" t="n">
-        <v>83889309.98529324</v>
+        <v>58179504.58522647</v>
       </c>
       <c r="O15" t="n">
-        <v>914302919.6242424</v>
+        <v>913242019.3379748</v>
       </c>
       <c r="P15" t="n">
-        <v>896816814.1612692</v>
+        <v>895755913.8750015</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02539331998242774</v>
+        <v>0.01603571062712021</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02588843812055389</v>
+        <v>0.01634874470577512</v>
       </c>
     </row>
     <row r="16">
@@ -1350,49 +1350,49 @@
         <v>10254</v>
       </c>
       <c r="D16" t="n">
-        <v>10235</v>
+        <v>10228</v>
       </c>
       <c r="E16" t="n">
-        <v>9057</v>
+        <v>7523</v>
       </c>
       <c r="F16" t="n">
-        <v>0.884904738641915</v>
+        <v>0.7355299178725069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8832650672908133</v>
+        <v>0.7336649112541447</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1090150774465601</v>
+        <v>0.1030931809118703</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0962892097165491</v>
+        <v>0.07563584942461479</v>
       </c>
       <c r="J16" t="n">
-        <v>63804904.40937157</v>
+        <v>45146428.42506469</v>
       </c>
       <c r="K16" t="n">
-        <v>24412498.54468551</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>24412498.54468551</v>
+        <v>15078985.98419153</v>
       </c>
       <c r="N16" t="n">
-        <v>88217402.95405708</v>
+        <v>60225414.4092562</v>
       </c>
       <c r="O16" t="n">
-        <v>955199529.3546511</v>
+        <v>954929691.5795953</v>
       </c>
       <c r="P16" t="n">
-        <v>937607703.4814696</v>
+        <v>937337865.7064139</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02555748594346461</v>
+        <v>0.01579067665101987</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02603700721958497</v>
+        <v>0.01608703386033319</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -538,49 +538,49 @@
         <v>9478</v>
       </c>
       <c r="D2" t="n">
-        <v>9448</v>
+        <v>9457</v>
       </c>
       <c r="E2" t="n">
-        <v>7574</v>
+        <v>8383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8016511430990686</v>
+        <v>0.8864333298086073</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7991137370753324</v>
+        <v>0.8844692973201097</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1028346976498548</v>
+        <v>0.09581466306536589</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08217661953998734</v>
+        <v>0.08474512771438723</v>
       </c>
       <c r="J2" t="n">
-        <v>39239770.164845</v>
+        <v>40726470.77878331</v>
       </c>
       <c r="K2" t="n">
-        <v>13420220.8417585</v>
+        <v>14166871.48193765</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>13420220.8417585</v>
+        <v>14166871.48193765</v>
       </c>
       <c r="N2" t="n">
-        <v>52659991.0066035</v>
+        <v>54893342.26072096</v>
       </c>
       <c r="O2" t="n">
-        <v>801375021.0472001</v>
+        <v>800181092.3172001</v>
       </c>
       <c r="P2" t="n">
-        <v>783675214.0432</v>
+        <v>782481285.3132</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01674649257749708</v>
+        <v>0.0177045816477775</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01712472284598593</v>
+        <v>0.01810506110221811</v>
       </c>
     </row>
     <row r="3">
@@ -596,49 +596,49 @@
         <v>9666</v>
       </c>
       <c r="D3" t="n">
-        <v>9640</v>
+        <v>9643</v>
       </c>
       <c r="E3" t="n">
-        <v>7551</v>
+        <v>8567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.783298755186722</v>
+        <v>0.8884164679041792</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7811918063314711</v>
+        <v>0.8863025036209394</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1028830618461131</v>
+        <v>0.09424911249622747</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08037140492447756</v>
+        <v>0.08353322436945795</v>
       </c>
       <c r="J3" t="n">
-        <v>40538728.96122567</v>
+        <v>42515722.80644882</v>
       </c>
       <c r="K3" t="n">
-        <v>13799638.26741243</v>
+        <v>14791534.53323031</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>13799638.26741243</v>
+        <v>14791534.53323031</v>
       </c>
       <c r="N3" t="n">
-        <v>54338367.2286381</v>
+        <v>57307257.33967912</v>
       </c>
       <c r="O3" t="n">
-        <v>836150914.9537281</v>
+        <v>837382254.356528</v>
       </c>
       <c r="P3" t="n">
-        <v>818670738.9296581</v>
+        <v>819902078.332458</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01650376507472469</v>
+        <v>0.01766401718722426</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01685615182173761</v>
+        <v>0.01804061109750299</v>
       </c>
     </row>
     <row r="4">
@@ -654,49 +654,49 @@
         <v>9858</v>
       </c>
       <c r="D4" t="n">
-        <v>9834</v>
+        <v>9835</v>
       </c>
       <c r="E4" t="n">
-        <v>7543</v>
+        <v>8715</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7670327435428107</v>
+        <v>0.8861209964412812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7651653479407587</v>
+        <v>0.8840535605599513</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1029497547394936</v>
+        <v>0.09311208234732114</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07877358490566039</v>
+        <v>0.08231606793030065</v>
       </c>
       <c r="J4" t="n">
-        <v>42014448.3095379</v>
+        <v>44356356.26072727</v>
       </c>
       <c r="K4" t="n">
-        <v>14217426.49631654</v>
+        <v>15391881.79541372</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>14217426.49631654</v>
+        <v>15391881.79541372</v>
       </c>
       <c r="N4" t="n">
-        <v>56231874.80585443</v>
+        <v>59748238.05614099</v>
       </c>
       <c r="O4" t="n">
-        <v>875322312.16536</v>
+        <v>875322254.7530119</v>
       </c>
       <c r="P4" t="n">
-        <v>857873364.1594061</v>
+        <v>857873306.7470582</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0162425043880644</v>
+        <v>0.01758424592981109</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01657287321217578</v>
+        <v>0.01794190549392158</v>
       </c>
     </row>
     <row r="5">
@@ -712,49 +712,49 @@
         <v>10054</v>
       </c>
       <c r="D5" t="n">
-        <v>10026</v>
+        <v>10024</v>
       </c>
       <c r="E5" t="n">
-        <v>7534</v>
+        <v>8891</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7514462397765809</v>
+        <v>0.8869712689545092</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7493534911478019</v>
+        <v>0.8843246469067038</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1030222989116007</v>
+        <v>0.09183918725606031</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07720011935548041</v>
+        <v>0.08121565684241421</v>
       </c>
       <c r="J5" t="n">
-        <v>43535019.83059579</v>
+        <v>46281693.98751035</v>
       </c>
       <c r="K5" t="n">
-        <v>14644484.75463068</v>
+        <v>16021428.19629553</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>14644484.75463068</v>
+        <v>16021428.19629553</v>
       </c>
       <c r="N5" t="n">
-        <v>58179504.58522647</v>
+        <v>62303122.18380587</v>
       </c>
       <c r="O5" t="n">
-        <v>914181328.8136762</v>
+        <v>913377479.2056578</v>
       </c>
       <c r="P5" t="n">
-        <v>896695223.350703</v>
+        <v>895891373.7426846</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01601923414213095</v>
+        <v>0.01754086186822668</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01633161900863961</v>
+        <v>0.01788322632169596</v>
       </c>
     </row>
     <row r="6">
@@ -770,49 +770,49 @@
         <v>10254</v>
       </c>
       <c r="D6" t="n">
-        <v>10237</v>
+        <v>10228</v>
       </c>
       <c r="E6" t="n">
-        <v>7523</v>
+        <v>9091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7348832665820064</v>
+        <v>0.8888345717637857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7336649112541447</v>
+        <v>0.8865808464989272</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1030931809118703</v>
+        <v>0.0905776771966571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07563584942461479</v>
+        <v>0.08030443372291884</v>
       </c>
       <c r="J6" t="n">
-        <v>45146428.42506469</v>
+        <v>48451138.13060883</v>
       </c>
       <c r="K6" t="n">
-        <v>15078985.98419153</v>
+        <v>16735055.39106738</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>15078985.98419153</v>
+        <v>16735055.39106738</v>
       </c>
       <c r="N6" t="n">
-        <v>60225414.4092562</v>
+        <v>65186193.5216762</v>
       </c>
       <c r="O6" t="n">
-        <v>955175919.0364679</v>
+        <v>954116855.7025089</v>
       </c>
       <c r="P6" t="n">
-        <v>937584093.1632864</v>
+        <v>936525029.8293273</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01578660609388313</v>
+        <v>0.01753983832383455</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01608280909855989</v>
+        <v>0.01786930926354118</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>9478</v>
       </c>
       <c r="D7" t="n">
-        <v>9448</v>
+        <v>9456</v>
       </c>
       <c r="E7" t="n">
-        <v>7574</v>
+        <v>8390</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8016511430990686</v>
+        <v>0.8872673434856176</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7991137370753324</v>
+        <v>0.8852078497573328</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1028346976498548</v>
+        <v>0.09666309586593051</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08217661953998734</v>
+        <v>0.08556693124236725</v>
       </c>
       <c r="J7" t="n">
-        <v>39239770.164845</v>
+        <v>41213626.84427914</v>
       </c>
       <c r="K7" t="n">
-        <v>13420220.8417585</v>
+        <v>14411981.36879557</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>13420220.8417585</v>
+        <v>14411981.36879557</v>
       </c>
       <c r="N7" t="n">
-        <v>52659991.0066035</v>
+        <v>55625608.21307472</v>
       </c>
       <c r="O7" t="n">
-        <v>800637542.8872001</v>
+        <v>800758175.3072001</v>
       </c>
       <c r="P7" t="n">
-        <v>782937735.8832</v>
+        <v>783058368.3032</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01676191800020205</v>
+        <v>0.01799791973808648</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01714085325906497</v>
+        <v>0.01840473450277369</v>
       </c>
     </row>
     <row r="8">
@@ -886,49 +886,49 @@
         <v>9666</v>
       </c>
       <c r="D8" t="n">
-        <v>9645</v>
+        <v>9643</v>
       </c>
       <c r="E8" t="n">
-        <v>7551</v>
+        <v>8553</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7828926905132193</v>
+        <v>0.886964637560925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7811918063314711</v>
+        <v>0.8848541278708877</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1028830618461131</v>
+        <v>0.09541183041090721</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08037140492447756</v>
+        <v>0.08442555198680833</v>
       </c>
       <c r="J8" t="n">
-        <v>40538728.96122567</v>
+        <v>43058552.09083918</v>
       </c>
       <c r="K8" t="n">
-        <v>13799638.26741243</v>
+        <v>15064526.98515879</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>13799638.26741243</v>
+        <v>15064526.98515879</v>
       </c>
       <c r="N8" t="n">
-        <v>54338367.2286381</v>
+        <v>58123079.07599795</v>
       </c>
       <c r="O8" t="n">
-        <v>837666957.2402281</v>
+        <v>837166427.141628</v>
       </c>
       <c r="P8" t="n">
-        <v>820186781.216158</v>
+        <v>819686251.117558</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01647389591786768</v>
+        <v>0.0179946621086971</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01682499472492178</v>
+        <v>0.01837840632878721</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>9858</v>
       </c>
       <c r="D9" t="n">
-        <v>9841</v>
+        <v>9833</v>
       </c>
       <c r="E9" t="n">
-        <v>7543</v>
+        <v>8760</v>
       </c>
       <c r="F9" t="n">
-        <v>0.766487145615283</v>
+        <v>0.8908776568697244</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7651653479407587</v>
+        <v>0.888618381010347</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1029497547394936</v>
+        <v>0.09408327412763762</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07877358490566039</v>
+        <v>0.08360412673545399</v>
       </c>
       <c r="J9" t="n">
-        <v>42014448.3095379</v>
+        <v>45171746.23605794</v>
       </c>
       <c r="K9" t="n">
-        <v>14217426.49631654</v>
+        <v>15801201.92710435</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>14217426.49631654</v>
+        <v>15801201.92710435</v>
       </c>
       <c r="N9" t="n">
-        <v>56231874.80585443</v>
+        <v>60972948.16316229</v>
       </c>
       <c r="O9" t="n">
-        <v>875577079.980539</v>
+        <v>875679138.500765</v>
       </c>
       <c r="P9" t="n">
-        <v>858128131.9745851</v>
+        <v>858230190.4948111</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01623777828518826</v>
+        <v>0.0180445110913083</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01656795292749779</v>
+        <v>0.01841137972318848</v>
       </c>
     </row>
     <row r="10">
@@ -1002,49 +1002,49 @@
         <v>10054</v>
       </c>
       <c r="D10" t="n">
-        <v>10035</v>
+        <v>10029</v>
       </c>
       <c r="E10" t="n">
-        <v>7534</v>
+        <v>8920</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7507722969606377</v>
+        <v>0.8894206800279191</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7493534911478019</v>
+        <v>0.8872090710165108</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1030222989116007</v>
+        <v>0.09311928308151099</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07720011935548041</v>
+        <v>0.08261627263647085</v>
       </c>
       <c r="J10" t="n">
-        <v>43535019.83059579</v>
+        <v>47228158.87806591</v>
       </c>
       <c r="K10" t="n">
-        <v>14644484.75463068</v>
+        <v>16496334.53991937</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>14644484.75463068</v>
+        <v>16496334.53991937</v>
       </c>
       <c r="N10" t="n">
-        <v>58179504.58522647</v>
+        <v>63724493.41798528</v>
       </c>
       <c r="O10" t="n">
-        <v>913946124.0779107</v>
+        <v>914254174.7405434</v>
       </c>
       <c r="P10" t="n">
-        <v>896460018.6149374</v>
+        <v>896768069.2775702</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01602335670431958</v>
+        <v>0.01804348833802248</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01633590394500464</v>
+        <v>0.01839531881772808</v>
       </c>
     </row>
     <row r="11">
@@ -1060,49 +1060,49 @@
         <v>10254</v>
       </c>
       <c r="D11" t="n">
-        <v>10229</v>
+        <v>10232</v>
       </c>
       <c r="E11" t="n">
-        <v>7523</v>
+        <v>9105</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7354580115358295</v>
+        <v>0.8898553557466771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7336649112541447</v>
+        <v>0.8879461673493271</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1030931809118703</v>
+        <v>0.09199977791416801</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07563584942461479</v>
+        <v>0.08169085019587474</v>
       </c>
       <c r="J11" t="n">
-        <v>45146428.42506469</v>
+        <v>49468210.12644157</v>
       </c>
       <c r="K11" t="n">
-        <v>15078985.98419153</v>
+        <v>17245315.50428019</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>15078985.98419153</v>
+        <v>17245315.50428019</v>
       </c>
       <c r="N11" t="n">
-        <v>60225414.4092562</v>
+        <v>66713525.63072176</v>
       </c>
       <c r="O11" t="n">
-        <v>954343579.3721293</v>
+        <v>955710133.1542411</v>
       </c>
       <c r="P11" t="n">
-        <v>936751753.4989479</v>
+        <v>938118307.2810595</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01580037452980206</v>
+        <v>0.01804450419225281</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01609709928790484</v>
+        <v>0.01838287918531528</v>
       </c>
     </row>
     <row r="12">
@@ -1118,49 +1118,49 @@
         <v>9478</v>
       </c>
       <c r="D12" t="n">
-        <v>9458</v>
+        <v>9463</v>
       </c>
       <c r="E12" t="n">
-        <v>7574</v>
+        <v>8393</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8008035525481074</v>
+        <v>0.8869280355067104</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7991137370753324</v>
+        <v>0.8855243722304283</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1028346976498548</v>
+        <v>0.09671184592974379</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08217661953998734</v>
+        <v>0.08564069665418225</v>
       </c>
       <c r="J12" t="n">
-        <v>39239770.164845</v>
+        <v>41239758.28268903</v>
       </c>
       <c r="K12" t="n">
-        <v>13420220.8417585</v>
+        <v>14425047.08800052</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>13420220.8417585</v>
+        <v>14425047.08800052</v>
       </c>
       <c r="N12" t="n">
-        <v>52659991.0066035</v>
+        <v>55664805.37068957</v>
       </c>
       <c r="O12" t="n">
-        <v>800122294.0972</v>
+        <v>800750889.2872001</v>
       </c>
       <c r="P12" t="n">
-        <v>782422487.0932001</v>
+        <v>783051082.2832</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0167727120476013</v>
+        <v>0.01801440033471731</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01715214102756216</v>
+        <v>0.0184215914061958</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>9666</v>
       </c>
       <c r="D13" t="n">
-        <v>9637</v>
+        <v>9652</v>
       </c>
       <c r="E13" t="n">
-        <v>7551</v>
+        <v>8568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7835425962436443</v>
+        <v>0.8876916701201824</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7811918063314711</v>
+        <v>0.8864059590316573</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1028830618461131</v>
+        <v>0.1019541322918984</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08037140492447756</v>
+        <v>0.09037275041144063</v>
       </c>
       <c r="J13" t="n">
-        <v>40538728.96122567</v>
+        <v>48077747.45953142</v>
       </c>
       <c r="K13" t="n">
-        <v>13799638.26741243</v>
+        <v>17574124.66950491</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>13799638.26741243</v>
+        <v>17574124.66950491</v>
       </c>
       <c r="N13" t="n">
-        <v>54338367.2286381</v>
+        <v>65651872.12903633</v>
       </c>
       <c r="O13" t="n">
-        <v>835784763.7231281</v>
+        <v>836946297.5090281</v>
       </c>
       <c r="P13" t="n">
-        <v>818304587.6990581</v>
+        <v>819466121.4849579</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01651099525425647</v>
+        <v>0.02099791195899919</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01686369412423168</v>
+        <v>0.02144582211362047</v>
       </c>
     </row>
     <row r="14">
@@ -1234,49 +1234,49 @@
         <v>9858</v>
       </c>
       <c r="D14" t="n">
-        <v>9840</v>
+        <v>9836</v>
       </c>
       <c r="E14" t="n">
-        <v>7543</v>
+        <v>8719</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7665650406504065</v>
+        <v>0.8864375762505083</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7651653479407587</v>
+        <v>0.8844593223777643</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1029497547394936</v>
+        <v>0.1063217547815781</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07877358490566039</v>
+        <v>0.09403726718812941</v>
       </c>
       <c r="J14" t="n">
-        <v>42014448.3095379</v>
+        <v>54561128.47940587</v>
       </c>
       <c r="K14" t="n">
-        <v>14217426.49631654</v>
+        <v>20495893.04877832</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>14217426.49631654</v>
+        <v>20495893.04877832</v>
       </c>
       <c r="N14" t="n">
-        <v>56231874.80585443</v>
+        <v>75057021.52818419</v>
       </c>
       <c r="O14" t="n">
-        <v>874054288.5903099</v>
+        <v>875020684.362587</v>
       </c>
       <c r="P14" t="n">
-        <v>856605340.5843561</v>
+        <v>857571736.3566331</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01626606800276291</v>
+        <v>0.02342332405971483</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01659740585625785</v>
+        <v>0.02389991668318558</v>
       </c>
     </row>
     <row r="15">
@@ -1292,49 +1292,49 @@
         <v>10054</v>
       </c>
       <c r="D15" t="n">
-        <v>10034</v>
+        <v>10032</v>
       </c>
       <c r="E15" t="n">
-        <v>7534</v>
+        <v>8902</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7508471197927048</v>
+        <v>0.8873604465709729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7493534911478019</v>
+        <v>0.8854187388104238</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1030222989116007</v>
+        <v>0.1094883113450708</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07720011935548041</v>
+        <v>0.09694300254563555</v>
       </c>
       <c r="J15" t="n">
-        <v>43535019.83059579</v>
+        <v>60667658.19851614</v>
       </c>
       <c r="K15" t="n">
-        <v>14644484.75463068</v>
+        <v>23216084.20014448</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>14644484.75463068</v>
+        <v>23216084.20014448</v>
       </c>
       <c r="N15" t="n">
-        <v>58179504.58522647</v>
+        <v>83883742.3986606</v>
       </c>
       <c r="O15" t="n">
-        <v>913242019.3379748</v>
+        <v>914085108.69052</v>
       </c>
       <c r="P15" t="n">
-        <v>895755913.8750015</v>
+        <v>896599003.2275469</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01603571062712021</v>
+        <v>0.02539816476542634</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01634874470577512</v>
+        <v>0.02589349766904937</v>
       </c>
     </row>
     <row r="16">
@@ -1350,49 +1350,49 @@
         <v>10254</v>
       </c>
       <c r="D16" t="n">
-        <v>10228</v>
+        <v>10236</v>
       </c>
       <c r="E16" t="n">
-        <v>7523</v>
+        <v>9104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7355299178725069</v>
+        <v>0.889409925752247</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7336649112541447</v>
+        <v>0.8878486444314414</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1030931809118703</v>
+        <v>0.1086977081952903</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07563584942461479</v>
+        <v>0.09650711287399286</v>
       </c>
       <c r="J16" t="n">
-        <v>45146428.42506469</v>
+        <v>64007671.86784674</v>
       </c>
       <c r="K16" t="n">
-        <v>15078985.98419153</v>
+        <v>24515046.37498279</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>15078985.98419153</v>
+        <v>24515046.37498279</v>
       </c>
       <c r="N16" t="n">
-        <v>60225414.4092562</v>
+        <v>88522718.24282953</v>
       </c>
       <c r="O16" t="n">
-        <v>954929691.5795953</v>
+        <v>955327879.892617</v>
       </c>
       <c r="P16" t="n">
-        <v>937337865.7064139</v>
+        <v>937736054.0194355</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01579067665101987</v>
+        <v>0.02566139530831905</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01608703386033319</v>
+        <v>0.02614280027935738</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -538,49 +538,49 @@
         <v>9478</v>
       </c>
       <c r="D2" t="n">
-        <v>9457</v>
+        <v>9465</v>
       </c>
       <c r="E2" t="n">
-        <v>8383</v>
+        <v>8368</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8864333298086073</v>
+        <v>0.8840993132593766</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8844692973201097</v>
+        <v>0.8828866849546317</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09581466306536589</v>
+        <v>0.0958304262959481</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08474512771438723</v>
+        <v>0.08460740739021877</v>
       </c>
       <c r="J2" t="n">
-        <v>40726470.77878331</v>
+        <v>40617149.71070025</v>
       </c>
       <c r="K2" t="n">
-        <v>14166871.48193765</v>
+        <v>14113742.80200613</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14166871.48193765</v>
+        <v>14113742.80200613</v>
       </c>
       <c r="N2" t="n">
-        <v>54893342.26072096</v>
+        <v>54730892.51270638</v>
       </c>
       <c r="O2" t="n">
-        <v>800181092.3172001</v>
+        <v>800741935.3172001</v>
       </c>
       <c r="P2" t="n">
-        <v>782481285.3132</v>
+        <v>783042128.3132001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0177045816477775</v>
+        <v>0.01762583196846711</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01810506110221811</v>
+        <v>0.01802424453510492</v>
       </c>
     </row>
     <row r="3">
@@ -596,49 +596,49 @@
         <v>9666</v>
       </c>
       <c r="D3" t="n">
-        <v>9643</v>
+        <v>9642</v>
       </c>
       <c r="E3" t="n">
-        <v>8567</v>
+        <v>8557</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8884164679041792</v>
+        <v>0.8874714789462768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8863025036209394</v>
+        <v>0.8852679495137595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09424911249622747</v>
+        <v>0.09415192489269762</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08353322436945795</v>
+        <v>0.08334968149253193</v>
       </c>
       <c r="J3" t="n">
-        <v>42515722.80644882</v>
+        <v>42347526.09196078</v>
       </c>
       <c r="K3" t="n">
-        <v>14791534.53323031</v>
+        <v>14709013.98571959</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14791534.53323031</v>
+        <v>14709013.98571959</v>
       </c>
       <c r="N3" t="n">
-        <v>57307257.33967912</v>
+        <v>57056540.07768038</v>
       </c>
       <c r="O3" t="n">
-        <v>837382254.356528</v>
+        <v>836091164.5578281</v>
       </c>
       <c r="P3" t="n">
-        <v>819902078.332458</v>
+        <v>818610988.533758</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01766401718722426</v>
+        <v>0.01759259589054328</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01804061109750299</v>
+        <v>0.0179682586622315</v>
       </c>
     </row>
     <row r="4">
@@ -654,49 +654,49 @@
         <v>9858</v>
       </c>
       <c r="D4" t="n">
-        <v>9835</v>
+        <v>9836</v>
       </c>
       <c r="E4" t="n">
-        <v>8715</v>
+        <v>8714</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8861209964412812</v>
+        <v>0.8859292395282635</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8840535605599513</v>
+        <v>0.8839521201054981</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09311208234732114</v>
+        <v>0.09305289739007716</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08231606793030065</v>
+        <v>0.08225430592991807</v>
       </c>
       <c r="J4" t="n">
-        <v>44356356.26072727</v>
+        <v>44259719.44997451</v>
       </c>
       <c r="K4" t="n">
-        <v>15391881.79541372</v>
+        <v>15345188.53406264</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15391881.79541372</v>
+        <v>15345188.53406264</v>
       </c>
       <c r="N4" t="n">
-        <v>59748238.05614099</v>
+        <v>59604907.98403715</v>
       </c>
       <c r="O4" t="n">
-        <v>875322254.7530119</v>
+        <v>874653871.4285319</v>
       </c>
       <c r="P4" t="n">
-        <v>857873306.7470582</v>
+        <v>857204923.4225781</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01758424592981109</v>
+        <v>0.01754429841944225</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01794190549392158</v>
+        <v>0.017901423702507</v>
       </c>
     </row>
     <row r="5">
@@ -712,49 +712,49 @@
         <v>10054</v>
       </c>
       <c r="D5" t="n">
-        <v>10024</v>
+        <v>10027</v>
       </c>
       <c r="E5" t="n">
-        <v>8891</v>
+        <v>8908</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8869712689545092</v>
+        <v>0.8884013164455968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8843246469067038</v>
+        <v>0.8860155162124528</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09183918725606031</v>
+        <v>0.09171498176794257</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08121565684241421</v>
+        <v>0.08126089691553934</v>
       </c>
       <c r="J5" t="n">
-        <v>46281693.98751035</v>
+        <v>46251536.29016398</v>
       </c>
       <c r="K5" t="n">
-        <v>16021428.19629553</v>
+        <v>16008023.2459684</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16021428.19629553</v>
+        <v>16008023.2459684</v>
       </c>
       <c r="N5" t="n">
-        <v>62303122.18380587</v>
+        <v>62259559.53613237</v>
       </c>
       <c r="O5" t="n">
-        <v>913377479.2056578</v>
+        <v>913201104.5186434</v>
       </c>
       <c r="P5" t="n">
-        <v>895891373.7426846</v>
+        <v>895714999.0556703</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01754086186822668</v>
+        <v>0.017529570613481</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01788322632169596</v>
+        <v>0.017871782054387</v>
       </c>
     </row>
     <row r="6">
@@ -770,49 +770,49 @@
         <v>10254</v>
       </c>
       <c r="D6" t="n">
-        <v>10228</v>
+        <v>10222</v>
       </c>
       <c r="E6" t="n">
-        <v>9091</v>
+        <v>9062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8888345717637857</v>
+        <v>0.8865192721580903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8865808464989272</v>
+        <v>0.8837526818802418</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0905776771966571</v>
+        <v>0.09064143435825292</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08030443372291884</v>
+        <v>0.08010461070357792</v>
       </c>
       <c r="J6" t="n">
-        <v>48451138.13060883</v>
+        <v>48302938.50549269</v>
       </c>
       <c r="K6" t="n">
-        <v>16735055.39106738</v>
+        <v>16662679.69380575</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>16735055.39106738</v>
+        <v>16662679.69380575</v>
       </c>
       <c r="N6" t="n">
-        <v>65186193.5216762</v>
+        <v>64965618.19929844</v>
       </c>
       <c r="O6" t="n">
-        <v>954116855.7025089</v>
+        <v>954323256.6988841</v>
       </c>
       <c r="P6" t="n">
-        <v>936525029.8293273</v>
+        <v>936731430.8257025</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01753983832383455</v>
+        <v>0.01746020499536385</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01786930926354118</v>
+        <v>0.01778810782415838</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>9478</v>
       </c>
       <c r="D7" t="n">
-        <v>9456</v>
+        <v>9453</v>
       </c>
       <c r="E7" t="n">
-        <v>8390</v>
+        <v>8379</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8872673434856176</v>
+        <v>0.8863852745160267</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8852078497573328</v>
+        <v>0.8840472673559823</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09666309586593051</v>
+        <v>0.09675112722510387</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08556693124236725</v>
+        <v>0.08553256963696407</v>
       </c>
       <c r="J7" t="n">
-        <v>41213626.84427914</v>
+        <v>41181848.30283703</v>
       </c>
       <c r="K7" t="n">
-        <v>14411981.36879557</v>
+        <v>14396092.09807451</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14411981.36879557</v>
+        <v>14396092.09807451</v>
       </c>
       <c r="N7" t="n">
-        <v>55625608.21307472</v>
+        <v>55577940.40091153</v>
       </c>
       <c r="O7" t="n">
-        <v>800758175.3072001</v>
+        <v>800091928.4872</v>
       </c>
       <c r="P7" t="n">
-        <v>783058368.3032</v>
+        <v>782392121.4832001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01799791973808648</v>
+        <v>0.01799304753054364</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01840473450277369</v>
+        <v>0.01840009849636968</v>
       </c>
     </row>
     <row r="8">
@@ -886,49 +886,49 @@
         <v>9666</v>
       </c>
       <c r="D8" t="n">
-        <v>9643</v>
+        <v>9644</v>
       </c>
       <c r="E8" t="n">
-        <v>8553</v>
+        <v>8563</v>
       </c>
       <c r="F8" t="n">
-        <v>0.886964637560925</v>
+        <v>0.8879095810866861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8848541278708877</v>
+        <v>0.8858886819780675</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09541183041090721</v>
+        <v>0.09538540115674442</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08442555198680833</v>
+        <v>0.08450084731069751</v>
       </c>
       <c r="J8" t="n">
-        <v>43058552.09083918</v>
+        <v>43122511.22151443</v>
       </c>
       <c r="K8" t="n">
-        <v>15064526.98515879</v>
+        <v>15096506.55049641</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15064526.98515879</v>
+        <v>15096506.55049641</v>
       </c>
       <c r="N8" t="n">
-        <v>58123079.07599795</v>
+        <v>58219017.77201083</v>
       </c>
       <c r="O8" t="n">
-        <v>837166427.141628</v>
+        <v>837860675.346328</v>
       </c>
       <c r="P8" t="n">
-        <v>819686251.117558</v>
+        <v>820380499.322258</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0179946621086971</v>
+        <v>0.01801791991760002</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01837840632878721</v>
+        <v>0.01840183495703287</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>9858</v>
       </c>
       <c r="D9" t="n">
-        <v>9833</v>
+        <v>9824</v>
       </c>
       <c r="E9" t="n">
-        <v>8760</v>
+        <v>8726</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8908776568697244</v>
+        <v>0.8882328990228013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.888618381010347</v>
+        <v>0.8851694055589369</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09408327412763762</v>
+        <v>0.09438221778644625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08360412673545399</v>
+        <v>0.08354425161336274</v>
       </c>
       <c r="J9" t="n">
-        <v>45171746.23605794</v>
+        <v>45115835.6214844</v>
       </c>
       <c r="K9" t="n">
-        <v>15801201.92710435</v>
+        <v>15773246.61981758</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>15801201.92710435</v>
+        <v>15773246.61981758</v>
       </c>
       <c r="N9" t="n">
-        <v>60972948.16316229</v>
+        <v>60889082.24130198</v>
       </c>
       <c r="O9" t="n">
-        <v>875679138.500765</v>
+        <v>874134762.184269</v>
       </c>
       <c r="P9" t="n">
-        <v>858230190.4948111</v>
+        <v>856685814.1783152</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0180445110913083</v>
+        <v>0.01804441065860799</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01841137972318848</v>
+        <v>0.01841193861129403</v>
       </c>
     </row>
     <row r="10">
@@ -1005,46 +1005,46 @@
         <v>10029</v>
       </c>
       <c r="E10" t="n">
-        <v>8920</v>
+        <v>8915</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8894206800279191</v>
+        <v>0.8889221258350782</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8872090710165108</v>
+        <v>0.8867117565148199</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09311928308151099</v>
+        <v>0.09325617978731912</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08261627263647085</v>
+        <v>0.08269135098507559</v>
       </c>
       <c r="J10" t="n">
-        <v>47228158.87806591</v>
+        <v>47276888.58374348</v>
       </c>
       <c r="K10" t="n">
-        <v>16496334.53991937</v>
+        <v>16520699.39275815</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16496334.53991937</v>
+        <v>16520699.39275815</v>
       </c>
       <c r="N10" t="n">
-        <v>63724493.41798528</v>
+        <v>63797587.97650164</v>
       </c>
       <c r="O10" t="n">
-        <v>914254174.7405434</v>
+        <v>914424195.1217525</v>
       </c>
       <c r="P10" t="n">
-        <v>896768069.2775702</v>
+        <v>896938089.6587793</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01804348833802248</v>
+        <v>0.01806677850486937</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01839531881772808</v>
+        <v>0.01841899634237085</v>
       </c>
     </row>
     <row r="11">
@@ -1060,49 +1060,49 @@
         <v>10254</v>
       </c>
       <c r="D11" t="n">
-        <v>10232</v>
+        <v>10229</v>
       </c>
       <c r="E11" t="n">
-        <v>9105</v>
+        <v>9106</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8898553557466771</v>
+        <v>0.8902140971746993</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8879461673493271</v>
+        <v>0.8880436902672127</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09199977791416801</v>
+        <v>0.09212643515120535</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08169085019587474</v>
+        <v>0.08181229944283946</v>
       </c>
       <c r="J11" t="n">
-        <v>49468210.12644157</v>
+        <v>49566607.15969561</v>
       </c>
       <c r="K11" t="n">
-        <v>17245315.50428019</v>
+        <v>17294514.02090722</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>17245315.50428019</v>
+        <v>17294514.02090722</v>
       </c>
       <c r="N11" t="n">
-        <v>66713525.63072176</v>
+        <v>66861121.18060283</v>
       </c>
       <c r="O11" t="n">
-        <v>955710133.1542411</v>
+        <v>955116216.3787864</v>
       </c>
       <c r="P11" t="n">
-        <v>938118307.2810595</v>
+        <v>937524390.505605</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01804450419225281</v>
+        <v>0.01810723524983942</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01838287918531528</v>
+        <v>0.01844700169515624</v>
       </c>
     </row>
     <row r="12">
@@ -1118,49 +1118,49 @@
         <v>9478</v>
       </c>
       <c r="D12" t="n">
-        <v>9463</v>
+        <v>9465</v>
       </c>
       <c r="E12" t="n">
-        <v>8393</v>
+        <v>8384</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8869280355067104</v>
+        <v>0.8857897517168516</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8855243722304283</v>
+        <v>0.8845748048111416</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09671184592974379</v>
+        <v>0.09679007923257567</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08564069665418225</v>
+        <v>0.08561806544481057</v>
       </c>
       <c r="J12" t="n">
-        <v>41239758.28268903</v>
+        <v>41250664.96178105</v>
       </c>
       <c r="K12" t="n">
-        <v>14425047.08800052</v>
+        <v>14430500.42754652</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14425047.08800052</v>
+        <v>14430500.42754652</v>
       </c>
       <c r="N12" t="n">
-        <v>55664805.37068957</v>
+        <v>55681165.38932757</v>
       </c>
       <c r="O12" t="n">
-        <v>800750889.2872001</v>
+        <v>801737041.7372</v>
       </c>
       <c r="P12" t="n">
-        <v>783051082.2832</v>
+        <v>784037234.7332001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01801440033471731</v>
+        <v>0.0179990441707403</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0184215914061958</v>
+        <v>0.018405376413605</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>9666</v>
       </c>
       <c r="D13" t="n">
-        <v>9652</v>
+        <v>9648</v>
       </c>
       <c r="E13" t="n">
-        <v>8568</v>
+        <v>8554</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8876916701201824</v>
+        <v>0.886608623548922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8864059590316573</v>
+        <v>0.8849575832816057</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1019541322918984</v>
+        <v>0.101949910499804</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09037275041144063</v>
+        <v>0.09022134641168254</v>
       </c>
       <c r="J13" t="n">
-        <v>48077747.45953142</v>
+        <v>48011620.77939813</v>
       </c>
       <c r="K13" t="n">
-        <v>17574124.66950491</v>
+        <v>17541061.32943826</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17574124.66950491</v>
+        <v>17541061.32943826</v>
       </c>
       <c r="N13" t="n">
-        <v>65651872.12903633</v>
+        <v>65552682.10883638</v>
       </c>
       <c r="O13" t="n">
-        <v>836946297.5090281</v>
+        <v>837547624.534428</v>
       </c>
       <c r="P13" t="n">
-        <v>819466121.4849579</v>
+        <v>820067448.510358</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02099791195899919</v>
+        <v>0.02094335989453603</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02144582211362047</v>
+        <v>0.02138977880575723</v>
       </c>
     </row>
     <row r="14">
@@ -1234,49 +1234,49 @@
         <v>9858</v>
       </c>
       <c r="D14" t="n">
-        <v>9836</v>
+        <v>9842</v>
       </c>
       <c r="E14" t="n">
-        <v>8719</v>
+        <v>8741</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8864375762505083</v>
+        <v>0.8881324933956513</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8844593223777643</v>
+        <v>0.8866910123757354</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1063217547815781</v>
+        <v>0.1061872908635677</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09403726718812941</v>
+        <v>0.09415531643725347</v>
       </c>
       <c r="J14" t="n">
-        <v>54561128.47940587</v>
+        <v>54607314.52462393</v>
       </c>
       <c r="K14" t="n">
-        <v>20495893.04877832</v>
+        <v>20518986.07138735</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>20495893.04877832</v>
+        <v>20518986.07138735</v>
       </c>
       <c r="N14" t="n">
-        <v>75057021.52818419</v>
+        <v>75126300.5960113</v>
       </c>
       <c r="O14" t="n">
-        <v>875020684.362587</v>
+        <v>875630888.769419</v>
       </c>
       <c r="P14" t="n">
-        <v>857571736.3566331</v>
+        <v>858181940.7634652</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02342332405971483</v>
+        <v>0.02343337396448407</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02389991668318558</v>
+        <v>0.02390983204928902</v>
       </c>
     </row>
     <row r="15">
@@ -1292,49 +1292,49 @@
         <v>10054</v>
       </c>
       <c r="D15" t="n">
-        <v>10032</v>
+        <v>10033</v>
       </c>
       <c r="E15" t="n">
-        <v>8902</v>
+        <v>8884</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8873604465709729</v>
+        <v>0.8854779228545799</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8854187388104238</v>
+        <v>0.8836284066043366</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1094883113450708</v>
+        <v>0.1096290891937461</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09694300254563555</v>
+        <v>0.09687137740175458</v>
       </c>
       <c r="J15" t="n">
-        <v>60667658.19851614</v>
+        <v>60627454.10565276</v>
       </c>
       <c r="K15" t="n">
-        <v>23216084.20014448</v>
+        <v>23195982.15371279</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>23216084.20014448</v>
+        <v>23195982.15371279</v>
       </c>
       <c r="N15" t="n">
-        <v>83883742.3986606</v>
+        <v>83823436.25936554</v>
       </c>
       <c r="O15" t="n">
-        <v>914085108.69052</v>
+        <v>914110715.330657</v>
       </c>
       <c r="P15" t="n">
-        <v>896599003.2275469</v>
+        <v>896624609.8676838</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02539816476542634</v>
+        <v>0.02537546247373571</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02589349766904937</v>
+        <v>0.02587033848773776</v>
       </c>
     </row>
     <row r="16">
@@ -1350,49 +1350,49 @@
         <v>10254</v>
       </c>
       <c r="D16" t="n">
-        <v>10236</v>
+        <v>10231</v>
       </c>
       <c r="E16" t="n">
-        <v>9104</v>
+        <v>9096</v>
       </c>
       <c r="F16" t="n">
-        <v>0.889409925752247</v>
+        <v>0.889062652722119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8878486444314414</v>
+        <v>0.8870684610883558</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1086977081952903</v>
+        <v>0.1086865141011976</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09650711287399286</v>
+        <v>0.09641237880480726</v>
       </c>
       <c r="J16" t="n">
-        <v>64007671.86784674</v>
+        <v>63928479.04605511</v>
       </c>
       <c r="K16" t="n">
-        <v>24515046.37498279</v>
+        <v>24475449.96408697</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>24515046.37498279</v>
+        <v>24475449.96408697</v>
       </c>
       <c r="N16" t="n">
-        <v>88522718.24282953</v>
+        <v>88403929.01014209</v>
       </c>
       <c r="O16" t="n">
-        <v>955327879.892617</v>
+        <v>955558181.6979581</v>
       </c>
       <c r="P16" t="n">
-        <v>937736054.0194355</v>
+        <v>937966355.8247766</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02566139530831905</v>
+        <v>0.0256137725916342</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02614280027935738</v>
+        <v>0.02609416618420722</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -535,52 +535,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9478</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>9465</v>
+        <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>8368</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8840993132593766</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8828866849546317</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0958304262959481</v>
+        <v>0.09853558668981278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08460740739021877</v>
+        <v>0.08307902407180294</v>
       </c>
       <c r="J2" t="n">
-        <v>40617149.71070025</v>
+        <v>453398.1905958019</v>
       </c>
       <c r="K2" t="n">
-        <v>14113742.80200613</v>
+        <v>164085.0954989009</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14113742.80200613</v>
+        <v>164085.0954989009</v>
       </c>
       <c r="N2" t="n">
-        <v>54730892.51270638</v>
+        <v>617483.2860947028</v>
       </c>
       <c r="O2" t="n">
-        <v>800741935.3172001</v>
+        <v>10034971.8888</v>
       </c>
       <c r="P2" t="n">
-        <v>783042128.3132001</v>
+        <v>9627230.958700001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01762583196846711</v>
+        <v>0.01635132587486724</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01802424453510492</v>
+        <v>0.01704385157090465</v>
       </c>
     </row>
     <row r="3">
@@ -593,52 +593,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9666</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>9642</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>8557</v>
+        <v>85</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8874714789462768</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8852679495137595</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09415192489269762</v>
+        <v>0.09946524789627358</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08334968149253193</v>
+        <v>0.08208297156488596</v>
       </c>
       <c r="J3" t="n">
-        <v>42347526.09196078</v>
+        <v>475130.6665414795</v>
       </c>
       <c r="K3" t="n">
-        <v>14709013.98571959</v>
+        <v>172352.9134777698</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14709013.98571959</v>
+        <v>172352.9134777698</v>
       </c>
       <c r="N3" t="n">
-        <v>57056540.07768038</v>
+        <v>647483.5800192493</v>
       </c>
       <c r="O3" t="n">
-        <v>836091164.5578281</v>
+        <v>10633646.086764</v>
       </c>
       <c r="P3" t="n">
-        <v>818610988.533758</v>
+        <v>10226272.928761</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01759259589054328</v>
+        <v>0.01620826121835127</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0179682586622315</v>
+        <v>0.01685393248140618</v>
       </c>
     </row>
     <row r="4">
@@ -651,52 +651,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>9858</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>9836</v>
+        <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>8714</v>
+        <v>87</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8859292395282635</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8839521201054981</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09305289739007716</v>
+        <v>0.09774377642832541</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08225430592991807</v>
+        <v>0.08176642835831067</v>
       </c>
       <c r="J4" t="n">
-        <v>44259719.44997451</v>
+        <v>502966.1150419703</v>
       </c>
       <c r="K4" t="n">
-        <v>15345188.53406264</v>
+        <v>179184.265134226</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15345188.53406264</v>
+        <v>179184.265134226</v>
       </c>
       <c r="N4" t="n">
-        <v>59604907.98403715</v>
+        <v>682150.3801761963</v>
       </c>
       <c r="O4" t="n">
-        <v>874653871.4285319</v>
+        <v>10970666.81506692</v>
       </c>
       <c r="P4" t="n">
-        <v>857204923.4225781</v>
+        <v>10562322.46232383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01754429841944225</v>
+        <v>0.01633303318337382</v>
       </c>
       <c r="R4" t="n">
-        <v>0.017901423702507</v>
+        <v>0.01696447592595118</v>
       </c>
     </row>
     <row r="5">
@@ -709,52 +709,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10054</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>10027</v>
+        <v>104</v>
       </c>
       <c r="E5" t="n">
-        <v>8908</v>
+        <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8884013164455968</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8860155162124528</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09171498176794257</v>
+        <v>0.09774030428156209</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08126089691553934</v>
+        <v>0.08098482354758002</v>
       </c>
       <c r="J5" t="n">
-        <v>46251536.29016398</v>
+        <v>516886.2289629109</v>
       </c>
       <c r="K5" t="n">
-        <v>16008023.2459684</v>
+        <v>183570.3583230936</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16008023.2459684</v>
+        <v>183570.3583230936</v>
       </c>
       <c r="N5" t="n">
-        <v>62259559.53613237</v>
+        <v>700456.5872860046</v>
       </c>
       <c r="O5" t="n">
-        <v>913201104.5186434</v>
+        <v>11269370.82291893</v>
       </c>
       <c r="P5" t="n">
-        <v>895714999.0556703</v>
+        <v>10858676.13959355</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.017529570613481</v>
+        <v>0.01628931740801003</v>
       </c>
       <c r="R5" t="n">
-        <v>0.017871782054387</v>
+        <v>0.01690540872231639</v>
       </c>
     </row>
     <row r="6">
@@ -767,52 +767,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10254</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>10222</v>
+        <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>9062</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8865192721580903</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8837526818802418</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09064143435825292</v>
+        <v>0.09459020222215261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08010461070357792</v>
+        <v>0.08031243584899751</v>
       </c>
       <c r="J6" t="n">
-        <v>48302938.50549269</v>
+        <v>533100.1538977289</v>
       </c>
       <c r="K6" t="n">
-        <v>16662679.69380575</v>
+        <v>188616.1381057517</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>16662679.69380575</v>
+        <v>188616.1381057517</v>
       </c>
       <c r="N6" t="n">
-        <v>64965618.19929844</v>
+        <v>721716.2920034805</v>
       </c>
       <c r="O6" t="n">
-        <v>954323256.6988841</v>
+        <v>11647629.9738065</v>
       </c>
       <c r="P6" t="n">
-        <v>936731430.8257025</v>
+        <v>11233164.44998135</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01746020499536385</v>
+        <v>0.01619352078748352</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01778810782415838</v>
+        <v>0.0167910065721565</v>
       </c>
     </row>
     <row r="7">
@@ -825,52 +825,52 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9478</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>9453</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>8379</v>
+        <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8863852745160267</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8840472673559823</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09675112722510387</v>
+        <v>0.1003363526021026</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08553256963696407</v>
+        <v>0.08361362716841886</v>
       </c>
       <c r="J7" t="n">
-        <v>41181848.30283703</v>
+        <v>460561.0260389551</v>
       </c>
       <c r="K7" t="n">
-        <v>14396092.09807451</v>
+        <v>167666.5132204776</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>14396092.09807451</v>
+        <v>167666.5132204776</v>
       </c>
       <c r="N7" t="n">
-        <v>55577940.40091153</v>
+        <v>628227.5392594326</v>
       </c>
       <c r="O7" t="n">
-        <v>800091928.4872</v>
+        <v>10081246.3288</v>
       </c>
       <c r="P7" t="n">
-        <v>782392121.4832001</v>
+        <v>9673505.398699997</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01799304753054364</v>
+        <v>0.01663152627681457</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01840009849636968</v>
+        <v>0.01733254971284866</v>
       </c>
     </row>
     <row r="8">
@@ -883,52 +883,52 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9666</v>
+        <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>9644</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>8563</v>
+        <v>87</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8879095810866861</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8858886819780675</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09538540115674442</v>
+        <v>0.09903479425028895</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08450084731069751</v>
+        <v>0.08365074854150621</v>
       </c>
       <c r="J8" t="n">
-        <v>43122511.22151443</v>
+        <v>486903.624841487</v>
       </c>
       <c r="K8" t="n">
-        <v>15096506.55049641</v>
+        <v>178239.3926277735</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15096506.55049641</v>
+        <v>178239.3926277735</v>
       </c>
       <c r="N8" t="n">
-        <v>58219017.77201083</v>
+        <v>665143.0174692603</v>
       </c>
       <c r="O8" t="n">
-        <v>837860675.346328</v>
+        <v>10637203.005464</v>
       </c>
       <c r="P8" t="n">
-        <v>820380499.322258</v>
+        <v>10229829.847461</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01801791991760002</v>
+        <v>0.01675622741581762</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01840183495703287</v>
+        <v>0.01742349533526324</v>
       </c>
     </row>
     <row r="9">
@@ -941,52 +941,52 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>9858</v>
+        <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>9824</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>8726</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8882328990228013</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8851694055589369</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09438221778644625</v>
+        <v>0.09855902998287509</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08354425161336274</v>
+        <v>0.08339610229320202</v>
       </c>
       <c r="J9" t="n">
-        <v>45115835.6214844</v>
+        <v>508874.7839486722</v>
       </c>
       <c r="K9" t="n">
-        <v>15773246.61981758</v>
+        <v>182138.599587577</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>15773246.61981758</v>
+        <v>182138.599587577</v>
       </c>
       <c r="N9" t="n">
-        <v>60889082.24130198</v>
+        <v>691013.3835362492</v>
       </c>
       <c r="O9" t="n">
-        <v>874134762.184269</v>
+        <v>10795112.11552792</v>
       </c>
       <c r="P9" t="n">
-        <v>856685814.1783152</v>
+        <v>10386767.76278483</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01804441065860799</v>
+        <v>0.01687232125413361</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01841193861129403</v>
+        <v>0.01753563801052419</v>
       </c>
     </row>
     <row r="10">
@@ -999,52 +999,52 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10054</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>10029</v>
+        <v>105</v>
       </c>
       <c r="E10" t="n">
-        <v>8915</v>
+        <v>89</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8889221258350782</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8867117565148199</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09325617978731912</v>
+        <v>0.09827781108665552</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08269135098507559</v>
+        <v>0.08330214463535565</v>
       </c>
       <c r="J10" t="n">
-        <v>47276888.58374348</v>
+        <v>531695.2573335718</v>
       </c>
       <c r="K10" t="n">
-        <v>16520699.39275815</v>
+        <v>190974.872508424</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>16520699.39275815</v>
+        <v>190974.872508424</v>
       </c>
       <c r="N10" t="n">
-        <v>63797587.97650164</v>
+        <v>722670.1298419957</v>
       </c>
       <c r="O10" t="n">
-        <v>914424195.1217525</v>
+        <v>11349892.00119376</v>
       </c>
       <c r="P10" t="n">
-        <v>896938089.6587793</v>
+        <v>10939197.31786837</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01806677850486937</v>
+        <v>0.01682614006268409</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01841899634237085</v>
+        <v>0.01745785060449367</v>
       </c>
     </row>
     <row r="11">
@@ -1057,52 +1057,52 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10254</v>
+        <v>106</v>
       </c>
       <c r="D11" t="n">
-        <v>10229</v>
+        <v>106</v>
       </c>
       <c r="E11" t="n">
-        <v>9106</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8902140971746993</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8880436902672127</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09212643515120535</v>
+        <v>0.0979325194061124</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08181229944283946</v>
+        <v>0.082226360633434</v>
       </c>
       <c r="J11" t="n">
-        <v>49566607.15969561</v>
+        <v>547947.509474281</v>
       </c>
       <c r="K11" t="n">
-        <v>17294514.02090722</v>
+        <v>196039.8158940278</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>17294514.02090722</v>
+        <v>196039.8158940278</v>
       </c>
       <c r="N11" t="n">
-        <v>66861121.18060283</v>
+        <v>743987.3253683088</v>
       </c>
       <c r="O11" t="n">
-        <v>955116216.3787864</v>
+        <v>11668294.54402957</v>
       </c>
       <c r="P11" t="n">
-        <v>937524390.505605</v>
+        <v>11253829.02020442</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01810723524983942</v>
+        <v>0.016801068498424</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01844700169515624</v>
+        <v>0.01741983244476792</v>
       </c>
     </row>
     <row r="12">
@@ -1115,52 +1115,52 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9478</v>
+        <v>102</v>
       </c>
       <c r="D12" t="n">
-        <v>9465</v>
+        <v>102</v>
       </c>
       <c r="E12" t="n">
-        <v>8384</v>
+        <v>86</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8857897517168516</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8845748048111416</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09679007923257567</v>
+        <v>0.09930466255509107</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08561806544481057</v>
+        <v>0.08372746058566501</v>
       </c>
       <c r="J12" t="n">
-        <v>41250664.96178105</v>
+        <v>458202.2395800996</v>
       </c>
       <c r="K12" t="n">
-        <v>14430500.42754652</v>
+        <v>166487.1199910498</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14430500.42754652</v>
+        <v>166487.1199910498</v>
       </c>
       <c r="N12" t="n">
-        <v>55681165.38932757</v>
+        <v>624689.3595711493</v>
       </c>
       <c r="O12" t="n">
-        <v>801737041.7372</v>
+        <v>10064889.9988</v>
       </c>
       <c r="P12" t="n">
-        <v>784037234.7332001</v>
+        <v>9657149.068700001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0179990441707403</v>
+        <v>0.01654137501859429</v>
       </c>
       <c r="R12" t="n">
-        <v>0.018405376413605</v>
+        <v>0.01723977944284353</v>
       </c>
     </row>
     <row r="13">
@@ -1173,52 +1173,52 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9666</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>9648</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
-        <v>8554</v>
+        <v>87</v>
       </c>
       <c r="F13" t="n">
-        <v>0.886608623548922</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8849575832816057</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="H13" t="n">
-        <v>0.101949910499804</v>
+        <v>0.1058451956245466</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09022134641168254</v>
+        <v>0.08940322348869467</v>
       </c>
       <c r="J13" t="n">
-        <v>48011620.77939813</v>
+        <v>544119.8952699812</v>
       </c>
       <c r="K13" t="n">
-        <v>17541061.32943826</v>
+        <v>206847.5278420206</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>17541061.32943826</v>
+        <v>206847.5278420206</v>
       </c>
       <c r="N13" t="n">
-        <v>65552682.10883638</v>
+        <v>750967.4231120017</v>
       </c>
       <c r="O13" t="n">
-        <v>837547624.534428</v>
+        <v>10559579.354464</v>
       </c>
       <c r="P13" t="n">
-        <v>820067448.510358</v>
+        <v>10152206.196461</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02094335989453603</v>
+        <v>0.01958861436602368</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02138977880575723</v>
+        <v>0.02037463816624671</v>
       </c>
     </row>
     <row r="14">
@@ -1231,52 +1231,52 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>9858</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>9842</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
-        <v>8741</v>
+        <v>86</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8881324933956513</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8866910123757354</v>
+        <v>0.8269230769230769</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1061872908635677</v>
+        <v>0.1118823209942627</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09415531643725347</v>
+        <v>0.09251807312987113</v>
       </c>
       <c r="J14" t="n">
-        <v>54607314.52462393</v>
+        <v>618419.5048371302</v>
       </c>
       <c r="K14" t="n">
-        <v>20518986.07138735</v>
+        <v>236910.960031806</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>20518986.07138735</v>
+        <v>236910.960031806</v>
       </c>
       <c r="N14" t="n">
-        <v>75126300.5960113</v>
+        <v>855330.4648689362</v>
       </c>
       <c r="O14" t="n">
-        <v>875630888.769419</v>
+        <v>10924825.81249792</v>
       </c>
       <c r="P14" t="n">
-        <v>858181940.7634652</v>
+        <v>10516481.45975483</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02343337396448407</v>
+        <v>0.02168555948606353</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02390983204928902</v>
+        <v>0.02252758785706347</v>
       </c>
     </row>
     <row r="15">
@@ -1289,52 +1289,52 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>10054</v>
+        <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>10033</v>
+        <v>104</v>
       </c>
       <c r="E15" t="n">
-        <v>8884</v>
+        <v>87</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8854779228545799</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8836284066043366</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1096290891937461</v>
+        <v>0.1152466813322768</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09687137740175458</v>
+        <v>0.09549010738960079</v>
       </c>
       <c r="J15" t="n">
-        <v>60627454.10565276</v>
+        <v>674928.3527059811</v>
       </c>
       <c r="K15" t="n">
-        <v>23195982.15371279</v>
+        <v>262591.4201946286</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>23195982.15371279</v>
+        <v>262591.4201946286</v>
       </c>
       <c r="N15" t="n">
-        <v>83823436.25936554</v>
+        <v>937519.7729006096</v>
       </c>
       <c r="O15" t="n">
-        <v>914110715.330657</v>
+        <v>11163372.94887286</v>
       </c>
       <c r="P15" t="n">
-        <v>896624609.8676838</v>
+        <v>10752678.26554748</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02537546247373571</v>
+        <v>0.0235225877875147</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02587033848773776</v>
+        <v>0.02442102457729016</v>
       </c>
     </row>
     <row r="16">
@@ -1347,52 +1347,52 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10254</v>
+        <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>10231</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>9096</v>
+        <v>89</v>
       </c>
       <c r="F16" t="n">
-        <v>0.889062652722119</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8870684610883558</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1086865141011976</v>
+        <v>0.1136698443269339</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09641237880480726</v>
+        <v>0.09543977495374641</v>
       </c>
       <c r="J16" t="n">
-        <v>63928479.04605511</v>
+        <v>706045.9233144443</v>
       </c>
       <c r="K16" t="n">
-        <v>24475449.96408697</v>
+        <v>275089.0228141093</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>24475449.96408697</v>
+        <v>275089.0228141093</v>
       </c>
       <c r="N16" t="n">
-        <v>88403929.01014209</v>
+        <v>981134.9461285535</v>
       </c>
       <c r="O16" t="n">
-        <v>955558181.6979581</v>
+        <v>11682335.88493904</v>
       </c>
       <c r="P16" t="n">
-        <v>937966355.8247766</v>
+        <v>11267870.3611139</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0256137725916342</v>
+        <v>0.02354743310956811</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02609416618420722</v>
+        <v>0.02441357718877013</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -550,37 +550,37 @@
         <v>0.8431372549019608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09853558668981278</v>
+        <v>0.0981586584325309</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08307902407180294</v>
+        <v>0.08276122181566332</v>
       </c>
       <c r="J2" t="n">
-        <v>453398.1905958019</v>
+        <v>455125.3006419801</v>
       </c>
       <c r="K2" t="n">
-        <v>164085.0954989009</v>
+        <v>164948.65052199</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>164085.0954989009</v>
+        <v>164948.65052199</v>
       </c>
       <c r="N2" t="n">
-        <v>617483.2860947028</v>
+        <v>620073.9511639702</v>
       </c>
       <c r="O2" t="n">
-        <v>10034971.8888</v>
+        <v>10164152.6588</v>
       </c>
       <c r="P2" t="n">
-        <v>9627230.958700001</v>
+        <v>9756411.728700001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01635132587486724</v>
+        <v>0.01622847039582581</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01704385157090465</v>
+        <v>0.01690669224595841</v>
       </c>
     </row>
     <row r="3">
@@ -599,46 +599,46 @@
         <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8252427184466019</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8252427184466019</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09946524789627358</v>
+        <v>0.09729244173422845</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08208297156488596</v>
+        <v>0.08217905272696967</v>
       </c>
       <c r="J3" t="n">
-        <v>475130.6665414795</v>
+        <v>469976.0611579026</v>
       </c>
       <c r="K3" t="n">
-        <v>172352.9134777698</v>
+        <v>169775.6107859813</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>172352.9134777698</v>
+        <v>169775.6107859813</v>
       </c>
       <c r="N3" t="n">
-        <v>647483.5800192493</v>
+        <v>639751.6719438838</v>
       </c>
       <c r="O3" t="n">
-        <v>10633646.086764</v>
+        <v>10441590.754864</v>
       </c>
       <c r="P3" t="n">
-        <v>10226272.928761</v>
+        <v>10034217.596861</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01620826121835127</v>
+        <v>0.01625955419741909</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01685393248140618</v>
+        <v>0.01691966604741481</v>
       </c>
     </row>
     <row r="4">
@@ -666,37 +666,37 @@
         <v>0.8365384615384616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09774377642832541</v>
+        <v>0.09766085713146683</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08176642835831067</v>
+        <v>0.08169706317728474</v>
       </c>
       <c r="J4" t="n">
-        <v>502966.1150419703</v>
+        <v>500624.5054121671</v>
       </c>
       <c r="K4" t="n">
-        <v>179184.265134226</v>
+        <v>178013.4603193245</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>179184.265134226</v>
+        <v>178013.4603193245</v>
       </c>
       <c r="N4" t="n">
-        <v>682150.3801761963</v>
+        <v>678637.9657314916</v>
       </c>
       <c r="O4" t="n">
-        <v>10970666.81506692</v>
+        <v>10968786.42890992</v>
       </c>
       <c r="P4" t="n">
-        <v>10562322.46232383</v>
+        <v>10560442.07616683</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01633303318337382</v>
+        <v>0.01622909348021789</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01696447592595118</v>
+        <v>0.01685662958381935</v>
       </c>
     </row>
     <row r="5">
@@ -712,49 +712,49 @@
         <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" t="n">
         <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="G5" t="n">
         <v>0.8285714285714286</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09774030428156209</v>
+        <v>0.09805477375316646</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08098482354758002</v>
+        <v>0.08124538396690935</v>
       </c>
       <c r="J5" t="n">
-        <v>516886.2289629109</v>
+        <v>515808.63208648</v>
       </c>
       <c r="K5" t="n">
-        <v>183570.3583230936</v>
+        <v>183031.5598848782</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>183570.3583230936</v>
+        <v>183031.5598848782</v>
       </c>
       <c r="N5" t="n">
-        <v>700456.5872860046</v>
+        <v>698840.1919713583</v>
       </c>
       <c r="O5" t="n">
-        <v>11269370.82291893</v>
+        <v>11245515.25037722</v>
       </c>
       <c r="P5" t="n">
-        <v>10858676.13959355</v>
+        <v>10834820.56705184</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01628931740801003</v>
+        <v>0.01627596031037693</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01690540872231639</v>
+        <v>0.0168929018023121</v>
       </c>
     </row>
     <row r="6">
@@ -782,37 +782,37 @@
         <v>0.8490566037735849</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09459020222215261</v>
+        <v>0.09525740397532713</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08031243584899751</v>
+        <v>0.08087892790357966</v>
       </c>
       <c r="J6" t="n">
-        <v>533100.1538977289</v>
+        <v>535448.0544955599</v>
       </c>
       <c r="K6" t="n">
-        <v>188616.1381057517</v>
+        <v>189790.0884046672</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>188616.1381057517</v>
+        <v>189790.0884046672</v>
       </c>
       <c r="N6" t="n">
-        <v>721716.2920034805</v>
+        <v>725238.1429002271</v>
       </c>
       <c r="O6" t="n">
-        <v>11647629.9738065</v>
+        <v>11615833.42568854</v>
       </c>
       <c r="P6" t="n">
-        <v>11233164.44998135</v>
+        <v>11201367.90186339</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01619352078748352</v>
+        <v>0.01633891271072676</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0167910065721565</v>
+        <v>0.01694347423166905</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" t="n">
         <v>85</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G7" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1003363526021026</v>
+        <v>0.1003684358597651</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08361362716841886</v>
+        <v>0.08364036321647093</v>
       </c>
       <c r="J7" t="n">
-        <v>460561.0260389551</v>
+        <v>456350.2764925769</v>
       </c>
       <c r="K7" t="n">
-        <v>167666.5132204776</v>
+        <v>165561.1384472884</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>167666.5132204776</v>
+        <v>165561.1384472884</v>
       </c>
       <c r="N7" t="n">
-        <v>628227.5392594326</v>
+        <v>621911.4149398654</v>
       </c>
       <c r="O7" t="n">
-        <v>10081246.3288</v>
+        <v>10078372.3488</v>
       </c>
       <c r="P7" t="n">
-        <v>9673505.398699997</v>
+        <v>9670631.418699998</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01663152627681457</v>
+        <v>0.01642736869778395</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01733254971284866</v>
+        <v>0.01711999261259659</v>
       </c>
     </row>
     <row r="8">
@@ -889,46 +889,46 @@
         <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09903479425028895</v>
+        <v>0.09909943690069946</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08365074854150621</v>
+        <v>0.08274321915980733</v>
       </c>
       <c r="J8" t="n">
-        <v>486903.624841487</v>
+        <v>475621.2913790991</v>
       </c>
       <c r="K8" t="n">
-        <v>178239.3926277735</v>
+        <v>172598.2258965795</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>178239.3926277735</v>
+        <v>172598.2258965795</v>
       </c>
       <c r="N8" t="n">
-        <v>665143.0174692603</v>
+        <v>648219.5172756788</v>
       </c>
       <c r="O8" t="n">
-        <v>10637203.005464</v>
+        <v>10579921.128564</v>
       </c>
       <c r="P8" t="n">
-        <v>10229829.847461</v>
+        <v>10172547.970561</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01675622741581762</v>
+        <v>0.01631375355252824</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01742349533526324</v>
+        <v>0.01696705942268081</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09855902998287509</v>
+        <v>0.09886985879837833</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08339610229320202</v>
+        <v>0.08270843957172033</v>
       </c>
       <c r="J9" t="n">
-        <v>508874.7839486722</v>
+        <v>503855.2163199777</v>
       </c>
       <c r="K9" t="n">
-        <v>182138.599587577</v>
+        <v>179628.8157732298</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>182138.599587577</v>
+        <v>179628.8157732298</v>
       </c>
       <c r="N9" t="n">
-        <v>691013.3835362492</v>
+        <v>683484.0320932076</v>
       </c>
       <c r="O9" t="n">
-        <v>10795112.11552792</v>
+        <v>10893476.50522092</v>
       </c>
       <c r="P9" t="n">
-        <v>10386767.76278483</v>
+        <v>10485132.15247783</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01687232125413361</v>
+        <v>0.01648957664590721</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01753563801052419</v>
+        <v>0.01713176459399991</v>
       </c>
     </row>
     <row r="10">
@@ -1005,46 +1005,46 @@
         <v>105</v>
       </c>
       <c r="E10" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09827781108665552</v>
+        <v>0.09652624012210713</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08330214463535565</v>
+        <v>0.08365607477249284</v>
       </c>
       <c r="J10" t="n">
-        <v>531695.2573335718</v>
+        <v>536050.1427417491</v>
       </c>
       <c r="K10" t="n">
-        <v>190974.872508424</v>
+        <v>193152.3152125126</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>190974.872508424</v>
+        <v>193152.3152125126</v>
       </c>
       <c r="N10" t="n">
-        <v>722670.1298419957</v>
+        <v>729202.4579542616</v>
       </c>
       <c r="O10" t="n">
-        <v>11349892.00119376</v>
+        <v>11344132.16627755</v>
       </c>
       <c r="P10" t="n">
-        <v>10939197.31786837</v>
+        <v>10933437.48295217</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01682614006268409</v>
+        <v>0.01702662772095447</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01745785060449367</v>
+        <v>0.01766620200771103</v>
       </c>
     </row>
     <row r="11">
@@ -1063,46 +1063,46 @@
         <v>106</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G11" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0979325194061124</v>
+        <v>0.09703484391241361</v>
       </c>
       <c r="I11" t="n">
-        <v>0.082226360633434</v>
+        <v>0.08238807501997383</v>
       </c>
       <c r="J11" t="n">
-        <v>547947.509474281</v>
+        <v>551966.9472694583</v>
       </c>
       <c r="K11" t="n">
-        <v>196039.8158940278</v>
+        <v>198049.5347916165</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>196039.8158940278</v>
+        <v>198049.5347916165</v>
       </c>
       <c r="N11" t="n">
-        <v>743987.3253683088</v>
+        <v>750016.4820610748</v>
       </c>
       <c r="O11" t="n">
-        <v>11668294.54402957</v>
+        <v>11800478.14216588</v>
       </c>
       <c r="P11" t="n">
-        <v>11253829.02020442</v>
+        <v>11386012.61834073</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.016801068498424</v>
+        <v>0.01678317881747004</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01741983244476792</v>
+        <v>0.01739410814217752</v>
       </c>
     </row>
     <row r="12">
@@ -1130,37 +1130,37 @@
         <v>0.8431372549019608</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09930466255509107</v>
+        <v>0.1064597248414084</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08372746058566501</v>
+        <v>0.08976016016040311</v>
       </c>
       <c r="J12" t="n">
-        <v>458202.2395800996</v>
+        <v>523152.5604975562</v>
       </c>
       <c r="K12" t="n">
-        <v>166487.1199910498</v>
+        <v>198962.2804497781</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>166487.1199910498</v>
+        <v>198962.2804497781</v>
       </c>
       <c r="N12" t="n">
-        <v>624689.3595711493</v>
+        <v>722114.8409473342</v>
       </c>
       <c r="O12" t="n">
-        <v>10064889.9988</v>
+        <v>10195939.0888</v>
       </c>
       <c r="P12" t="n">
-        <v>9657149.068700001</v>
+        <v>9788198.158699997</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01654137501859429</v>
+        <v>0.01951387495717128</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01723977944284353</v>
+        <v>0.02032675240365208</v>
       </c>
     </row>
     <row r="13">
@@ -1179,46 +1179,46 @@
         <v>103</v>
       </c>
       <c r="E13" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1058451956245466</v>
+        <v>0.1097230768598265</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08940322348869467</v>
+        <v>0.09480926058761706</v>
       </c>
       <c r="J13" t="n">
-        <v>544119.8952699812</v>
+        <v>597470.8937858229</v>
       </c>
       <c r="K13" t="n">
-        <v>206847.5278420206</v>
+        <v>233523.0270999415</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>206847.5278420206</v>
+        <v>233523.0270999415</v>
       </c>
       <c r="N13" t="n">
-        <v>750967.4231120017</v>
+        <v>830993.9208857642</v>
       </c>
       <c r="O13" t="n">
-        <v>10559579.354464</v>
+        <v>10483919.652964</v>
       </c>
       <c r="P13" t="n">
-        <v>10152206.196461</v>
+        <v>10076546.494961</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01958861436602368</v>
+        <v>0.02227440068504532</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02037463816624671</v>
+        <v>0.02317490692041364</v>
       </c>
     </row>
     <row r="14">
@@ -1237,46 +1237,46 @@
         <v>104</v>
       </c>
       <c r="E14" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8269230769230769</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1118823209942627</v>
+        <v>0.1143843363215895</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09251807312987113</v>
+        <v>0.09678674611826801</v>
       </c>
       <c r="J14" t="n">
-        <v>618419.5048371302</v>
+        <v>662421.2148822283</v>
       </c>
       <c r="K14" t="n">
-        <v>236910.960031806</v>
+        <v>258911.8150543551</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>236910.960031806</v>
+        <v>258911.8150543551</v>
       </c>
       <c r="N14" t="n">
-        <v>855330.4648689362</v>
+        <v>921333.0299365834</v>
       </c>
       <c r="O14" t="n">
-        <v>10924825.81249792</v>
+        <v>10944178.12365292</v>
       </c>
       <c r="P14" t="n">
-        <v>10516481.45975483</v>
+        <v>10535833.77090983</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02168555948606353</v>
+        <v>0.02365749279014258</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02252758785706347</v>
+        <v>0.02457440205342159</v>
       </c>
     </row>
     <row r="15">
@@ -1292,49 +1292,49 @@
         <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1152466813322768</v>
+        <v>0.1137241401623681</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09549010738960079</v>
+        <v>0.09747783442488696</v>
       </c>
       <c r="J15" t="n">
-        <v>674928.3527059811</v>
+        <v>688290.7332236361</v>
       </c>
       <c r="K15" t="n">
-        <v>262591.4201946286</v>
+        <v>269272.6104534561</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>262591.4201946286</v>
+        <v>269272.6104534561</v>
       </c>
       <c r="N15" t="n">
-        <v>937519.7729006096</v>
+        <v>957563.3436770922</v>
       </c>
       <c r="O15" t="n">
-        <v>11163372.94887286</v>
+        <v>11180172.36496251</v>
       </c>
       <c r="P15" t="n">
-        <v>10752678.26554748</v>
+        <v>10769477.68163713</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0235225877875147</v>
+        <v>0.0240848353373628</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02442102457729016</v>
+        <v>0.02500331199094166</v>
       </c>
     </row>
     <row r="16">
@@ -1353,46 +1353,46 @@
         <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F16" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="G16" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1136698443269339</v>
+        <v>0.111601472672212</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09543977495374641</v>
+        <v>0.09686165552682552</v>
       </c>
       <c r="J16" t="n">
-        <v>706045.9233144443</v>
+        <v>716003.1770682526</v>
       </c>
       <c r="K16" t="n">
-        <v>275089.0228141093</v>
+        <v>280067.6496910135</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>275089.0228141093</v>
+        <v>280067.6496910135</v>
       </c>
       <c r="N16" t="n">
-        <v>981134.9461285535</v>
+        <v>996070.826759266</v>
       </c>
       <c r="O16" t="n">
-        <v>11682335.88493904</v>
+        <v>11684749.18171138</v>
       </c>
       <c r="P16" t="n">
-        <v>11267870.3611139</v>
+        <v>11270283.65788624</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02354743310956811</v>
+        <v>0.02396864882041002</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02441357718877013</v>
+        <v>0.02485009767212377</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -541,46 +541,46 @@
         <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0981586584325309</v>
+        <v>0.09737246067906356</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08276122181566332</v>
+        <v>0.08400761313487837</v>
       </c>
       <c r="J2" t="n">
-        <v>455125.3006419801</v>
+        <v>462691.8401053585</v>
       </c>
       <c r="K2" t="n">
-        <v>164948.65052199</v>
+        <v>168731.9202536792</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>164948.65052199</v>
+        <v>168731.9202536792</v>
       </c>
       <c r="N2" t="n">
-        <v>620073.9511639702</v>
+        <v>631423.7603590377</v>
       </c>
       <c r="O2" t="n">
-        <v>10164152.6588</v>
+        <v>10131360.5088</v>
       </c>
       <c r="P2" t="n">
-        <v>9756411.728700001</v>
+        <v>9723619.5787</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01622847039582581</v>
+        <v>0.01665441873350774</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01690669224595841</v>
+        <v>0.01735278914276877</v>
       </c>
     </row>
     <row r="3">
@@ -599,46 +599,46 @@
         <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09729244173422845</v>
+        <v>0.09684574533725648</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08217905272696967</v>
+        <v>0.08274199601629682</v>
       </c>
       <c r="J3" t="n">
-        <v>469976.0611579026</v>
+        <v>477113.6797688863</v>
       </c>
       <c r="K3" t="n">
-        <v>169775.6107859813</v>
+        <v>173344.4200914731</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169775.6107859813</v>
+        <v>173344.4200914731</v>
       </c>
       <c r="N3" t="n">
-        <v>639751.6719438838</v>
+        <v>650458.0998603592</v>
       </c>
       <c r="O3" t="n">
-        <v>10441590.754864</v>
+        <v>10494911.028964</v>
       </c>
       <c r="P3" t="n">
-        <v>10034217.596861</v>
+        <v>10087537.870961</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01625955419741909</v>
+        <v>0.0165169975822639</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01691966604741481</v>
+        <v>0.01718401678475774</v>
       </c>
     </row>
     <row r="4">
@@ -657,46 +657,46 @@
         <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09766085713146683</v>
+        <v>0.0971597766805547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08169706317728474</v>
+        <v>0.08221211872970012</v>
       </c>
       <c r="J4" t="n">
-        <v>500624.5054121671</v>
+        <v>504436.7308120827</v>
       </c>
       <c r="K4" t="n">
-        <v>178013.4603193245</v>
+        <v>179919.5730192822</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>178013.4603193245</v>
+        <v>179919.5730192822</v>
       </c>
       <c r="N4" t="n">
-        <v>678637.9657314916</v>
+        <v>684356.3038313651</v>
       </c>
       <c r="O4" t="n">
-        <v>10968786.42890992</v>
+        <v>10907997.05983292</v>
       </c>
       <c r="P4" t="n">
-        <v>10560442.07616683</v>
+        <v>10499652.70708983</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01622909348021789</v>
+        <v>0.01649428140036903</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01685662958381935</v>
+        <v>0.01713576420463818</v>
       </c>
     </row>
     <row r="5">
@@ -715,46 +715,46 @@
         <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09805477375316646</v>
+        <v>0.0964615420761171</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08124538396690935</v>
+        <v>0.08176264042642307</v>
       </c>
       <c r="J5" t="n">
-        <v>515808.63208648</v>
+        <v>524764.3891885336</v>
       </c>
       <c r="K5" t="n">
-        <v>183031.5598848782</v>
+        <v>187509.438435905</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>183031.5598848782</v>
+        <v>187509.438435905</v>
       </c>
       <c r="N5" t="n">
-        <v>698840.1919713583</v>
+        <v>712273.8276244387</v>
       </c>
       <c r="O5" t="n">
-        <v>11245515.25037722</v>
+        <v>11375845.10502791</v>
       </c>
       <c r="P5" t="n">
-        <v>10834820.56705184</v>
+        <v>10965150.42170252</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01627596031037693</v>
+        <v>0.01648312162346773</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0168929018023121</v>
+        <v>0.01710048938907224</v>
       </c>
     </row>
     <row r="6">
@@ -773,46 +773,46 @@
         <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09525740397532713</v>
+        <v>0.0955045359716872</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08087892790357966</v>
+        <v>0.08198974314550507</v>
       </c>
       <c r="J6" t="n">
-        <v>535448.0544955599</v>
+        <v>548908.0304184185</v>
       </c>
       <c r="K6" t="n">
-        <v>189790.0884046672</v>
+        <v>196520.0763660966</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>189790.0884046672</v>
+        <v>196520.0763660966</v>
       </c>
       <c r="N6" t="n">
-        <v>725238.1429002271</v>
+        <v>745428.1067845151</v>
       </c>
       <c r="O6" t="n">
-        <v>11615833.42568854</v>
+        <v>11767757.80777875</v>
       </c>
       <c r="P6" t="n">
-        <v>11201367.90186339</v>
+        <v>11353292.2839536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01633891271072676</v>
+        <v>0.01669987431558053</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01694347423166905</v>
+        <v>0.0173095232159091</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1003684358597651</v>
+        <v>0.09777407078138732</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08364036321647093</v>
+        <v>0.08339553096059507</v>
       </c>
       <c r="J7" t="n">
-        <v>456350.2764925769</v>
+        <v>459306.928978237</v>
       </c>
       <c r="K7" t="n">
-        <v>165561.1384472884</v>
+        <v>167039.4646901185</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>165561.1384472884</v>
+        <v>167039.4646901185</v>
       </c>
       <c r="N7" t="n">
-        <v>621911.4149398654</v>
+        <v>626346.3936683555</v>
       </c>
       <c r="O7" t="n">
-        <v>10078372.3488</v>
+        <v>10084600.3388</v>
       </c>
       <c r="P7" t="n">
-        <v>9670631.418699998</v>
+        <v>9676859.4087</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01642736869778395</v>
+        <v>0.01656381602426448</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01711999261259659</v>
+        <v>0.01726174346812782</v>
       </c>
     </row>
     <row r="8">
@@ -886,49 +886,49 @@
         <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8349514563106796</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8349514563106796</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09909943690069946</v>
+        <v>0.09815169676873819</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08274321915980733</v>
+        <v>0.08385776034610644</v>
       </c>
       <c r="J8" t="n">
-        <v>475621.2913790991</v>
+        <v>484236.7288196762</v>
       </c>
       <c r="K8" t="n">
-        <v>172598.2258965795</v>
+        <v>176905.9446168681</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>172598.2258965795</v>
+        <v>176905.9446168681</v>
       </c>
       <c r="N8" t="n">
-        <v>648219.5172756788</v>
+        <v>661142.6734365443</v>
       </c>
       <c r="O8" t="n">
-        <v>10579921.128564</v>
+        <v>10481710.504064</v>
       </c>
       <c r="P8" t="n">
-        <v>10172547.970561</v>
+        <v>10074337.346061</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01631375355252824</v>
+        <v>0.01687758353450781</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01696705942268081</v>
+        <v>0.01756005765342344</v>
       </c>
     </row>
     <row r="9">
@@ -947,46 +947,46 @@
         <v>104</v>
       </c>
       <c r="E9" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09886985879837833</v>
+        <v>0.09881066311551624</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08270843957172033</v>
+        <v>0.08360902263620605</v>
       </c>
       <c r="J9" t="n">
-        <v>503855.2163199777</v>
+        <v>510062.6018105842</v>
       </c>
       <c r="K9" t="n">
-        <v>179628.8157732298</v>
+        <v>182732.508518533</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>179628.8157732298</v>
+        <v>182732.508518533</v>
       </c>
       <c r="N9" t="n">
-        <v>683484.0320932076</v>
+        <v>692795.1103291172</v>
       </c>
       <c r="O9" t="n">
-        <v>10893476.50522092</v>
+        <v>10837517.91078592</v>
       </c>
       <c r="P9" t="n">
-        <v>10485132.15247783</v>
+        <v>10429173.55804283</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01648957664590721</v>
+        <v>0.01686110325471023</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01713176459399991</v>
+        <v>0.0175212836857636</v>
       </c>
     </row>
     <row r="10">
@@ -1005,46 +1005,46 @@
         <v>105</v>
       </c>
       <c r="E10" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8476190476190476</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09652624012210713</v>
+        <v>0.09810748281467674</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08365607477249284</v>
+        <v>0.08315777114767837</v>
       </c>
       <c r="J10" t="n">
-        <v>536050.1427417491</v>
+        <v>528942.5728075609</v>
       </c>
       <c r="K10" t="n">
-        <v>193152.3152125126</v>
+        <v>189598.5302454186</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>193152.3152125126</v>
+        <v>189598.5302454186</v>
       </c>
       <c r="N10" t="n">
-        <v>729202.4579542616</v>
+        <v>718541.1030529796</v>
       </c>
       <c r="O10" t="n">
-        <v>11344132.16627755</v>
+        <v>11253820.6075095</v>
       </c>
       <c r="P10" t="n">
-        <v>10933437.48295217</v>
+        <v>10843125.92418412</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01702662772095447</v>
+        <v>0.01684748112289106</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01766620200771103</v>
+        <v>0.01748559701059497</v>
       </c>
     </row>
     <row r="11">
@@ -1063,46 +1063,46 @@
         <v>106</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09703484391241361</v>
+        <v>0.09785518137528718</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08238807501997383</v>
+        <v>0.08216142587170339</v>
       </c>
       <c r="J11" t="n">
-        <v>551966.9472694583</v>
+        <v>546463.8167449427</v>
       </c>
       <c r="K11" t="n">
-        <v>198049.5347916165</v>
+        <v>195297.9695293586</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>198049.5347916165</v>
+        <v>195297.9695293586</v>
       </c>
       <c r="N11" t="n">
-        <v>750016.4820610748</v>
+        <v>741761.7862743011</v>
       </c>
       <c r="O11" t="n">
-        <v>11800478.14216588</v>
+        <v>11744042.02153478</v>
       </c>
       <c r="P11" t="n">
-        <v>11386012.61834073</v>
+        <v>11329576.49770964</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01678317881747004</v>
+        <v>0.01662953599546435</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01739410814217752</v>
+        <v>0.01723788789182363</v>
       </c>
     </row>
     <row r="12">
@@ -1121,46 +1121,46 @@
         <v>102</v>
       </c>
       <c r="E12" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1064597248414084</v>
+        <v>0.105155020195745</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08976016016040311</v>
+        <v>0.08969104663754716</v>
       </c>
       <c r="J12" t="n">
-        <v>523152.5604975562</v>
+        <v>519414.7856197282</v>
       </c>
       <c r="K12" t="n">
-        <v>198962.2804497781</v>
+        <v>197093.3930108641</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>198962.2804497781</v>
+        <v>197093.3930108641</v>
       </c>
       <c r="N12" t="n">
-        <v>722114.8409473342</v>
+        <v>716508.1786305922</v>
       </c>
       <c r="O12" t="n">
-        <v>10195939.0888</v>
+        <v>10094300.9488</v>
       </c>
       <c r="P12" t="n">
-        <v>9788198.158699997</v>
+        <v>9686560.0187</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01951387495717128</v>
+        <v>0.01952521467415674</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02032675240365208</v>
+        <v>0.02034709872548907</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1097230768598265</v>
+        <v>0.1124218121923839</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09480926058761706</v>
+        <v>0.09277528190633627</v>
       </c>
       <c r="J13" t="n">
-        <v>597470.8937858229</v>
+        <v>589272.077115087</v>
       </c>
       <c r="K13" t="n">
-        <v>233523.0270999415</v>
+        <v>229423.6187645734</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>233523.0270999415</v>
+        <v>229423.6187645734</v>
       </c>
       <c r="N13" t="n">
-        <v>830993.9208857642</v>
+        <v>818695.6958796604</v>
       </c>
       <c r="O13" t="n">
-        <v>10483919.652964</v>
+        <v>10505163.513564</v>
       </c>
       <c r="P13" t="n">
-        <v>10076546.494961</v>
+        <v>10097790.355561</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02227440068504532</v>
+        <v>0.02183912877399267</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02317490692041364</v>
+        <v>0.02272018042424762</v>
       </c>
     </row>
     <row r="14">
@@ -1237,46 +1237,46 @@
         <v>104</v>
       </c>
       <c r="E14" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1143843363215895</v>
+        <v>0.1180246687376596</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09678674611826801</v>
+        <v>0.09532761705734048</v>
       </c>
       <c r="J14" t="n">
-        <v>662421.2148822283</v>
+        <v>649734.5660466086</v>
       </c>
       <c r="K14" t="n">
-        <v>258911.8150543551</v>
+        <v>252568.4906365452</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>258911.8150543551</v>
+        <v>252568.4906365452</v>
       </c>
       <c r="N14" t="n">
-        <v>921333.0299365834</v>
+        <v>902303.0566831537</v>
       </c>
       <c r="O14" t="n">
-        <v>10944178.12365292</v>
+        <v>10901225.88937092</v>
       </c>
       <c r="P14" t="n">
-        <v>10535833.77090983</v>
+        <v>10492881.53662783</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02365749279014258</v>
+        <v>0.02316881543412548</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02457440205342159</v>
+        <v>0.02407046050743035</v>
       </c>
     </row>
     <row r="15">
@@ -1304,37 +1304,37 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1137241401623681</v>
+        <v>0.1126370358327302</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09747783442488696</v>
+        <v>0.09654603071376873</v>
       </c>
       <c r="J15" t="n">
-        <v>688290.7332236361</v>
+        <v>692419.1877078008</v>
       </c>
       <c r="K15" t="n">
-        <v>269272.6104534561</v>
+        <v>271336.8376955385</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>269272.6104534561</v>
+        <v>271336.8376955385</v>
       </c>
       <c r="N15" t="n">
-        <v>957563.3436770922</v>
+        <v>963756.0254033392</v>
       </c>
       <c r="O15" t="n">
-        <v>11180172.36496251</v>
+        <v>11465708.21445205</v>
       </c>
       <c r="P15" t="n">
-        <v>10769477.68163713</v>
+        <v>11055013.53112666</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0240848353373628</v>
+        <v>0.0236650743783563</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02500331199094166</v>
+        <v>0.02454423388370882</v>
       </c>
     </row>
     <row r="16">
@@ -1353,46 +1353,46 @@
         <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="H16" t="n">
-        <v>0.111601472672212</v>
+        <v>0.1130249947913053</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09686165552682552</v>
+        <v>0.09596461821903285</v>
       </c>
       <c r="J16" t="n">
-        <v>716003.1770682526</v>
+        <v>711267.298988305</v>
       </c>
       <c r="K16" t="n">
-        <v>280067.6496910135</v>
+        <v>277699.7106510397</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>280067.6496910135</v>
+        <v>277699.7106510397</v>
       </c>
       <c r="N16" t="n">
-        <v>996070.826759266</v>
+        <v>988967.0096393448</v>
       </c>
       <c r="O16" t="n">
-        <v>11684749.18171138</v>
+        <v>11792951.18548561</v>
       </c>
       <c r="P16" t="n">
-        <v>11270283.65788624</v>
+        <v>11378485.66166047</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02396864882041002</v>
+        <v>0.02354794031478937</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02485009767212377</v>
+        <v>0.02440568269877443</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -541,46 +541,46 @@
         <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09737246067906356</v>
+        <v>0.1020570907636317</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08400761313487837</v>
+        <v>0.08204589649625291</v>
       </c>
       <c r="J2" t="n">
-        <v>462691.8401053585</v>
+        <v>452494.6720494052</v>
       </c>
       <c r="K2" t="n">
-        <v>168731.9202536792</v>
+        <v>163633.3362257026</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>168731.9202536792</v>
+        <v>163633.3362257026</v>
       </c>
       <c r="N2" t="n">
-        <v>631423.7603590377</v>
+        <v>616128.0082751078</v>
       </c>
       <c r="O2" t="n">
-        <v>10131360.5088</v>
+        <v>10292112.5688</v>
       </c>
       <c r="P2" t="n">
-        <v>9723619.5787</v>
+        <v>9884371.638699999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01665441873350774</v>
+        <v>0.01589890657839757</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01735278914276877</v>
+        <v>0.01655475352474948</v>
       </c>
     </row>
     <row r="3">
@@ -596,49 +596,49 @@
         <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09684574533725648</v>
+        <v>0.09750327982997359</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08274199601629682</v>
+        <v>0.08235713927386119</v>
       </c>
       <c r="J3" t="n">
-        <v>477113.6797688863</v>
+        <v>473488.5336105639</v>
       </c>
       <c r="K3" t="n">
-        <v>173344.4200914731</v>
+        <v>171531.8470123119</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173344.4200914731</v>
+        <v>171531.8470123119</v>
       </c>
       <c r="N3" t="n">
-        <v>650458.0998603592</v>
+        <v>645020.3806228759</v>
       </c>
       <c r="O3" t="n">
-        <v>10494911.028964</v>
+        <v>10436953.712764</v>
       </c>
       <c r="P3" t="n">
-        <v>10087537.870961</v>
+        <v>10029580.554761</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0165169975822639</v>
+        <v>0.01643504912765254</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01718401678475774</v>
+        <v>0.01710259427856995</v>
       </c>
     </row>
     <row r="4">
@@ -657,46 +657,46 @@
         <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0971597766805547</v>
+        <v>0.09749531305237304</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08221211872970012</v>
+        <v>0.08155857918804287</v>
       </c>
       <c r="J4" t="n">
-        <v>504436.7308120827</v>
+        <v>497757.4148347</v>
       </c>
       <c r="K4" t="n">
-        <v>179919.5730192822</v>
+        <v>176579.9150305909</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>179919.5730192822</v>
+        <v>176579.9150305909</v>
       </c>
       <c r="N4" t="n">
-        <v>684356.3038313651</v>
+        <v>674337.3298652909</v>
       </c>
       <c r="O4" t="n">
-        <v>10907997.05983292</v>
+        <v>10911311.62264692</v>
       </c>
       <c r="P4" t="n">
-        <v>10499652.70708983</v>
+        <v>10502967.26990383</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01649428140036903</v>
+        <v>0.01618319787183892</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01713576420463818</v>
+        <v>0.01681238363339275</v>
       </c>
     </row>
     <row r="5">
@@ -715,46 +715,46 @@
         <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.819047619047619</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0964615420761171</v>
+        <v>0.09816608625862366</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08176264042642307</v>
+        <v>0.08040269922134892</v>
       </c>
       <c r="J5" t="n">
-        <v>524764.3891885336</v>
+        <v>513130.3226945847</v>
       </c>
       <c r="K5" t="n">
-        <v>187509.438435905</v>
+        <v>181692.4051889305</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>187509.438435905</v>
+        <v>181692.4051889305</v>
       </c>
       <c r="N5" t="n">
-        <v>712273.8276244387</v>
+        <v>694822.7278835152</v>
       </c>
       <c r="O5" t="n">
-        <v>11375845.10502791</v>
+        <v>11330655.55062633</v>
       </c>
       <c r="P5" t="n">
-        <v>10965150.42170252</v>
+        <v>10919960.86730095</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01648312162346773</v>
+        <v>0.01603547159095195</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01710048938907224</v>
+        <v>0.01663855826928791</v>
       </c>
     </row>
     <row r="6">
@@ -773,46 +773,46 @@
         <v>106</v>
       </c>
       <c r="E6" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0955045359716872</v>
+        <v>0.09702974602399582</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08198974314550507</v>
+        <v>0.08055299669916634</v>
       </c>
       <c r="J6" t="n">
-        <v>548908.0304184185</v>
+        <v>535915.2845663553</v>
       </c>
       <c r="K6" t="n">
-        <v>196520.0763660966</v>
+        <v>190023.7034400649</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>196520.0763660966</v>
+        <v>190023.7034400649</v>
       </c>
       <c r="N6" t="n">
-        <v>745428.1067845151</v>
+        <v>725938.9880064201</v>
       </c>
       <c r="O6" t="n">
-        <v>11767757.80777875</v>
+        <v>11688284.31584512</v>
       </c>
       <c r="P6" t="n">
-        <v>11353292.2839536</v>
+        <v>11273818.79201997</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01669987431558053</v>
+        <v>0.01625762158971963</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0173095232159091</v>
+        <v>0.01685530936283726</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09777407078138732</v>
+        <v>0.09833450573160141</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08339553096059507</v>
+        <v>0.08483761278804831</v>
       </c>
       <c r="J7" t="n">
-        <v>459306.928978237</v>
+        <v>472190.6408301356</v>
       </c>
       <c r="K7" t="n">
-        <v>167039.4646901185</v>
+        <v>173481.3206160678</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>167039.4646901185</v>
+        <v>173481.3206160678</v>
       </c>
       <c r="N7" t="n">
-        <v>626346.3936683555</v>
+        <v>645671.9614462035</v>
       </c>
       <c r="O7" t="n">
-        <v>10084600.3388</v>
+        <v>10262129.6088</v>
       </c>
       <c r="P7" t="n">
-        <v>9676859.4087</v>
+        <v>9854388.678699998</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01656381602426448</v>
+        <v>0.01690500190791819</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01726174346812782</v>
+        <v>0.01760447312079775</v>
       </c>
     </row>
     <row r="8">
@@ -886,49 +886,49 @@
         <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09815169676873819</v>
+        <v>0.09614705683641531</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08385776034610644</v>
+        <v>0.08307852483923264</v>
       </c>
       <c r="J8" t="n">
-        <v>484236.7288196762</v>
+        <v>477788.110972513</v>
       </c>
       <c r="K8" t="n">
-        <v>176905.9446168681</v>
+        <v>173681.6356932865</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>176905.9446168681</v>
+        <v>173681.6356932865</v>
       </c>
       <c r="N8" t="n">
-        <v>661142.6734365443</v>
+        <v>651469.7466657992</v>
       </c>
       <c r="O8" t="n">
-        <v>10481710.504064</v>
+        <v>10483190.267664</v>
       </c>
       <c r="P8" t="n">
-        <v>10074337.346061</v>
+        <v>10075817.109661</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01687758353450781</v>
+        <v>0.01656763172838877</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01756005765342344</v>
+        <v>0.01723747402349683</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8557692307692307</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09881066311551624</v>
+        <v>0.0970994315717198</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08360902263620605</v>
+        <v>0.08319085971041408</v>
       </c>
       <c r="J9" t="n">
-        <v>510062.6018105842</v>
+        <v>509184.1566766572</v>
       </c>
       <c r="K9" t="n">
-        <v>182732.508518533</v>
+        <v>182293.2859515694</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>182732.508518533</v>
+        <v>182293.2859515694</v>
       </c>
       <c r="N9" t="n">
-        <v>692795.1103291172</v>
+        <v>691477.4426282267</v>
       </c>
       <c r="O9" t="n">
-        <v>10837517.91078592</v>
+        <v>10842468.31879392</v>
       </c>
       <c r="P9" t="n">
-        <v>10429173.55804283</v>
+        <v>10434123.96605083</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01686110325471023</v>
+        <v>0.01681289542120121</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0175212836857636</v>
+        <v>0.01747087599732293</v>
       </c>
     </row>
     <row r="10">
@@ -1005,46 +1005,46 @@
         <v>105</v>
       </c>
       <c r="E10" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09810748281467674</v>
+        <v>0.09511055620966978</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08315777114767837</v>
+        <v>0.08242914871504717</v>
       </c>
       <c r="J10" t="n">
-        <v>528942.5728075609</v>
+        <v>526523.2199554271</v>
       </c>
       <c r="K10" t="n">
-        <v>189598.5302454186</v>
+        <v>188388.8538193516</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>189598.5302454186</v>
+        <v>188388.8538193516</v>
       </c>
       <c r="N10" t="n">
-        <v>718541.1030529796</v>
+        <v>714912.0737747787</v>
       </c>
       <c r="O10" t="n">
-        <v>11253820.6075095</v>
+        <v>11280831.86545774</v>
       </c>
       <c r="P10" t="n">
-        <v>10843125.92418412</v>
+        <v>10870137.18213236</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01684748112289106</v>
+        <v>0.01669990795591983</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01748559701059497</v>
+        <v>0.01733086258828576</v>
       </c>
     </row>
     <row r="11">
@@ -1063,46 +1063,46 @@
         <v>106</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F11" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="G11" t="n">
-        <v>0.839622641509434</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09785518137528718</v>
+        <v>0.09510156385804072</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08216142587170339</v>
+        <v>0.08254097995226177</v>
       </c>
       <c r="J11" t="n">
-        <v>546463.8167449427</v>
+        <v>551974.7101267558</v>
       </c>
       <c r="K11" t="n">
-        <v>195297.9695293586</v>
+        <v>198053.4162202651</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>195297.9695293586</v>
+        <v>198053.4162202651</v>
       </c>
       <c r="N11" t="n">
-        <v>741761.7862743011</v>
+        <v>750028.1263470209</v>
       </c>
       <c r="O11" t="n">
-        <v>11744042.02153478</v>
+        <v>11729815.62832147</v>
       </c>
       <c r="P11" t="n">
-        <v>11329576.49770964</v>
+        <v>11315350.10449633</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01662953599546435</v>
+        <v>0.01688461460059679</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01723788789182363</v>
+        <v>0.01750307453072668</v>
       </c>
     </row>
     <row r="12">
@@ -1130,37 +1130,37 @@
         <v>0.8529411764705882</v>
       </c>
       <c r="H12" t="n">
-        <v>0.105155020195745</v>
+        <v>0.1065069431212171</v>
       </c>
       <c r="I12" t="n">
-        <v>0.08969104663754716</v>
+        <v>0.09084415736809691</v>
       </c>
       <c r="J12" t="n">
-        <v>519414.7856197282</v>
+        <v>528276.0912988938</v>
       </c>
       <c r="K12" t="n">
-        <v>197093.3930108641</v>
+        <v>201524.0458504469</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>197093.3930108641</v>
+        <v>201524.0458504469</v>
       </c>
       <c r="N12" t="n">
-        <v>716508.1786305922</v>
+        <v>729800.1371493406</v>
       </c>
       <c r="O12" t="n">
-        <v>10094300.9488</v>
+        <v>10161399.9688</v>
       </c>
       <c r="P12" t="n">
-        <v>9686560.0187</v>
+        <v>9753659.038699998</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01952521467415674</v>
+        <v>0.01983231114504054</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02034709872548907</v>
+        <v>0.02066137898104204</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E13" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8252427184466019</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1124218121923839</v>
+        <v>0.1101170774262103</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09277528190633627</v>
+        <v>0.094080609839869</v>
       </c>
       <c r="J13" t="n">
-        <v>589272.077115087</v>
+        <v>595699.0697549444</v>
       </c>
       <c r="K13" t="n">
-        <v>229423.6187645734</v>
+        <v>232637.1150845023</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>229423.6187645734</v>
+        <v>232637.1150845023</v>
       </c>
       <c r="N13" t="n">
-        <v>818695.6958796604</v>
+        <v>828336.1848394468</v>
       </c>
       <c r="O13" t="n">
-        <v>10505163.513564</v>
+        <v>10536239.823564</v>
       </c>
       <c r="P13" t="n">
-        <v>10097790.355561</v>
+        <v>10128866.665561</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02183912877399267</v>
+        <v>0.02207970955294848</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02272018042424762</v>
+        <v>0.0229677339791122</v>
       </c>
     </row>
     <row r="14">
@@ -1234,49 +1234,49 @@
         <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8365384615384616</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1180246687376596</v>
+        <v>0.1155345313075407</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09532761705734048</v>
+        <v>0.09664907907457733</v>
       </c>
       <c r="J14" t="n">
-        <v>649734.5660466086</v>
+        <v>659315.5951792673</v>
       </c>
       <c r="K14" t="n">
-        <v>252568.4906365452</v>
+        <v>257359.0052028746</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>252568.4906365452</v>
+        <v>257359.0052028746</v>
       </c>
       <c r="N14" t="n">
-        <v>902303.0566831537</v>
+        <v>916674.600382142</v>
       </c>
       <c r="O14" t="n">
-        <v>10901225.88937092</v>
+        <v>10860875.61657092</v>
       </c>
       <c r="P14" t="n">
-        <v>10492881.53662783</v>
+        <v>10452531.26382783</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02316881543412548</v>
+        <v>0.02369597206418703</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02407046050743035</v>
+        <v>0.02462169198129975</v>
       </c>
     </row>
     <row r="15">
@@ -1295,46 +1295,46 @@
         <v>105</v>
       </c>
       <c r="E15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1126370358327302</v>
+        <v>0.1172245253426888</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09654603071376873</v>
+        <v>0.09489604432503375</v>
       </c>
       <c r="J15" t="n">
-        <v>692419.1877078008</v>
+        <v>678472.9241290929</v>
       </c>
       <c r="K15" t="n">
-        <v>271336.8376955385</v>
+        <v>264363.7059061846</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>271336.8376955385</v>
+        <v>264363.7059061846</v>
       </c>
       <c r="N15" t="n">
-        <v>963756.0254033392</v>
+        <v>942836.6300352775</v>
       </c>
       <c r="O15" t="n">
-        <v>11465708.21445205</v>
+        <v>11360984.84936805</v>
       </c>
       <c r="P15" t="n">
-        <v>11055013.53112666</v>
+        <v>10950290.16604267</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0236650743783563</v>
+        <v>0.02326943565292139</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02454423388370882</v>
+        <v>0.02414216444473664</v>
       </c>
     </row>
     <row r="16">
@@ -1350,49 +1350,49 @@
         <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="n">
         <v>90</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G16" t="n">
         <v>0.8490566037735849</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1130249947913053</v>
+        <v>0.1134076443070747</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09596461821903285</v>
+        <v>0.09628950931732752</v>
       </c>
       <c r="J16" t="n">
-        <v>711267.298988305</v>
+        <v>716159.0169867697</v>
       </c>
       <c r="K16" t="n">
-        <v>277699.7106510397</v>
+        <v>280145.5696502721</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>277699.7106510397</v>
+        <v>280145.5696502721</v>
       </c>
       <c r="N16" t="n">
-        <v>988967.0096393448</v>
+        <v>996304.5866370418</v>
       </c>
       <c r="O16" t="n">
-        <v>11792951.18548561</v>
+        <v>11698901.34244909</v>
       </c>
       <c r="P16" t="n">
-        <v>11378485.66166047</v>
+        <v>11284435.81862395</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02354794031478937</v>
+        <v>0.02394631439738472</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02440568269877443</v>
+        <v>0.02482583747677638</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -538,49 +538,49 @@
         <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="G2" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1020570907636317</v>
+        <v>0.09943492116856165</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08204589649625291</v>
+        <v>0.08286243430713471</v>
       </c>
       <c r="J2" t="n">
-        <v>452494.6720494052</v>
+        <v>453942.9050599152</v>
       </c>
       <c r="K2" t="n">
-        <v>163633.3362257026</v>
+        <v>164357.4527309576</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>163633.3362257026</v>
+        <v>164357.4527309576</v>
       </c>
       <c r="N2" t="n">
-        <v>616128.0082751078</v>
+        <v>618300.3577908728</v>
       </c>
       <c r="O2" t="n">
-        <v>10292112.5688</v>
+        <v>10015935.0988</v>
       </c>
       <c r="P2" t="n">
-        <v>9884371.638699999</v>
+        <v>9608194.168699998</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01589890657839757</v>
+        <v>0.01640959641907515</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01655475352474948</v>
+        <v>0.01710596703659199</v>
       </c>
     </row>
     <row r="3">
@@ -596,49 +596,49 @@
         <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
         <v>87</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.8446601941747572</v>
       </c>
       <c r="G3" t="n">
         <v>0.8446601941747572</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09750327982997359</v>
+        <v>0.09776072146367178</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08235713927386119</v>
+        <v>0.08257458997416935</v>
       </c>
       <c r="J3" t="n">
-        <v>473488.5336105639</v>
+        <v>475461.5553898957</v>
       </c>
       <c r="K3" t="n">
-        <v>171531.8470123119</v>
+        <v>172518.3579019778</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>171531.8470123119</v>
+        <v>172518.3579019778</v>
       </c>
       <c r="N3" t="n">
-        <v>645020.3806228759</v>
+        <v>647979.9132918735</v>
       </c>
       <c r="O3" t="n">
-        <v>10436953.712764</v>
+        <v>10570506.655464</v>
       </c>
       <c r="P3" t="n">
-        <v>10029580.554761</v>
+        <v>10163133.497461</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01643504912765254</v>
+        <v>0.01632072742821664</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01710259427856995</v>
+        <v>0.01697491801569636</v>
       </c>
     </row>
     <row r="4">
@@ -657,46 +657,46 @@
         <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8365384615384616</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09749531305237304</v>
+        <v>0.09666630872252636</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08155857918804287</v>
+        <v>0.08179456891906077</v>
       </c>
       <c r="J4" t="n">
-        <v>497757.4148347</v>
+        <v>499772.3434468232</v>
       </c>
       <c r="K4" t="n">
-        <v>176579.9150305909</v>
+        <v>177587.3793366524</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>176579.9150305909</v>
+        <v>177587.3793366524</v>
       </c>
       <c r="N4" t="n">
-        <v>674337.3298652909</v>
+        <v>677359.7227834756</v>
       </c>
       <c r="O4" t="n">
-        <v>10911311.62264692</v>
+        <v>10935308.90212792</v>
       </c>
       <c r="P4" t="n">
-        <v>10502967.26990383</v>
+        <v>10526964.54938483</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01618319787183892</v>
+        <v>0.01623981370129338</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01681238363339275</v>
+        <v>0.01686976131662097</v>
       </c>
     </row>
     <row r="5">
@@ -715,46 +715,46 @@
         <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G5" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09816608625862366</v>
+        <v>0.09525529745848933</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08040269922134892</v>
+        <v>0.0816473978215623</v>
       </c>
       <c r="J5" t="n">
-        <v>513130.3226945847</v>
+        <v>519331.4335515244</v>
       </c>
       <c r="K5" t="n">
-        <v>181692.4051889305</v>
+        <v>184792.9606174003</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>181692.4051889305</v>
+        <v>184792.9606174003</v>
       </c>
       <c r="N5" t="n">
-        <v>694822.7278835152</v>
+        <v>704124.3941689247</v>
       </c>
       <c r="O5" t="n">
-        <v>11330655.55062633</v>
+        <v>11301297.20929176</v>
       </c>
       <c r="P5" t="n">
-        <v>10919960.86730095</v>
+        <v>10890602.52596637</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01603547159095195</v>
+        <v>0.0163514822409472</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01663855826928791</v>
+        <v>0.01696811174375338</v>
       </c>
     </row>
     <row r="6">
@@ -782,37 +782,37 @@
         <v>0.8301886792452831</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09702974602399582</v>
+        <v>0.0962254754163797</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08055299669916634</v>
+        <v>0.0798853003456737</v>
       </c>
       <c r="J6" t="n">
-        <v>535915.2845663553</v>
+        <v>530251.3219092456</v>
       </c>
       <c r="K6" t="n">
-        <v>190023.7034400649</v>
+        <v>187191.7221115101</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>190023.7034400649</v>
+        <v>187191.7221115101</v>
       </c>
       <c r="N6" t="n">
-        <v>725938.9880064201</v>
+        <v>717443.0440207556</v>
       </c>
       <c r="O6" t="n">
-        <v>11688284.31584512</v>
+        <v>11764042.88127051</v>
       </c>
       <c r="P6" t="n">
-        <v>11273818.79201997</v>
+        <v>11349577.35744537</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01625762158971963</v>
+        <v>0.01591219311258524</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01685530936283726</v>
+        <v>0.01649327690503925</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8627450980392157</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09833450573160141</v>
+        <v>0.09847934560753153</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08483761278804831</v>
+        <v>0.08409512811622789</v>
       </c>
       <c r="J7" t="n">
-        <v>472190.6408301356</v>
+        <v>461526.6616369847</v>
       </c>
       <c r="K7" t="n">
-        <v>173481.3206160678</v>
+        <v>168149.3310194924</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>173481.3206160678</v>
+        <v>168149.3310194924</v>
       </c>
       <c r="N7" t="n">
-        <v>645671.9614462035</v>
+        <v>629675.9926564771</v>
       </c>
       <c r="O7" t="n">
-        <v>10262129.6088</v>
+        <v>10098564.6888</v>
       </c>
       <c r="P7" t="n">
-        <v>9854388.678699998</v>
+        <v>9690823.758699998</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01690500190791819</v>
+        <v>0.01665081486342128</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01760447312079775</v>
+        <v>0.01735139707483951</v>
       </c>
     </row>
     <row r="8">
@@ -898,37 +898,37 @@
         <v>0.8640776699029126</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09614705683641531</v>
+        <v>0.09664744730659888</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08307852483923264</v>
+        <v>0.08351090107075052</v>
       </c>
       <c r="J8" t="n">
-        <v>477788.110972513</v>
+        <v>480378.4435696948</v>
       </c>
       <c r="K8" t="n">
-        <v>173681.6356932865</v>
+        <v>174976.8019918774</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>173681.6356932865</v>
+        <v>174976.8019918774</v>
       </c>
       <c r="N8" t="n">
-        <v>651469.7466657992</v>
+        <v>655355.2455615721</v>
       </c>
       <c r="O8" t="n">
-        <v>10483190.267664</v>
+        <v>10549636.406764</v>
       </c>
       <c r="P8" t="n">
-        <v>10075817.109661</v>
+        <v>10142263.248761</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01656763172838877</v>
+        <v>0.0165860504803454</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01723747402349683</v>
+        <v>0.01725224416880058</v>
       </c>
     </row>
     <row r="9">
@@ -944,49 +944,49 @@
         <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8557692307692307</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0970994315717198</v>
+        <v>0.09672223673719484</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08319085971041408</v>
+        <v>0.08370193563795707</v>
       </c>
       <c r="J9" t="n">
-        <v>509184.1566766572</v>
+        <v>511686.5069044705</v>
       </c>
       <c r="K9" t="n">
-        <v>182293.2859515694</v>
+        <v>183544.4610654761</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>182293.2859515694</v>
+        <v>183544.4610654761</v>
       </c>
       <c r="N9" t="n">
-        <v>691477.4426282267</v>
+        <v>695230.9679699468</v>
       </c>
       <c r="O9" t="n">
-        <v>10842468.31879392</v>
+        <v>10895668.70626692</v>
       </c>
       <c r="P9" t="n">
-        <v>10434123.96605083</v>
+        <v>10487324.35352383</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01681289542120121</v>
+        <v>0.01684563527155573</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01747087599732293</v>
+        <v>0.01750155281540459</v>
       </c>
     </row>
     <row r="10">
@@ -1014,37 +1014,37 @@
         <v>0.8666666666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09511055620966978</v>
+        <v>0.09467907571674584</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08242914871504717</v>
+        <v>0.08205519895451308</v>
       </c>
       <c r="J10" t="n">
-        <v>526523.2199554271</v>
+        <v>524337.9468682207</v>
       </c>
       <c r="K10" t="n">
-        <v>188388.8538193516</v>
+        <v>187296.2172757485</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>188388.8538193516</v>
+        <v>187296.2172757485</v>
       </c>
       <c r="N10" t="n">
-        <v>714912.0737747787</v>
+        <v>711634.1641439691</v>
       </c>
       <c r="O10" t="n">
-        <v>11280831.86545774</v>
+        <v>11320413.25095493</v>
       </c>
       <c r="P10" t="n">
-        <v>10870137.18213236</v>
+        <v>10909718.56762955</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01669990795591983</v>
+        <v>0.01654499823669858</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01733086258828576</v>
+        <v>0.01716783215943617</v>
       </c>
     </row>
     <row r="11">
@@ -1060,49 +1060,49 @@
         <v>106</v>
       </c>
       <c r="D11" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8679245283018868</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09510156385804072</v>
+        <v>0.09657166851730856</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08254097995226177</v>
+        <v>0.08300020599127433</v>
       </c>
       <c r="J11" t="n">
-        <v>551974.7101267558</v>
+        <v>550804.6883894347</v>
       </c>
       <c r="K11" t="n">
-        <v>198053.4162202651</v>
+        <v>197468.4053516046</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>198053.4162202651</v>
+        <v>197468.4053516046</v>
       </c>
       <c r="N11" t="n">
-        <v>750028.1263470209</v>
+        <v>748273.0937410393</v>
       </c>
       <c r="O11" t="n">
-        <v>11729815.62832147</v>
+        <v>11614789.51518358</v>
       </c>
       <c r="P11" t="n">
-        <v>11315350.10449633</v>
+        <v>11200323.99135843</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01688461460059679</v>
+        <v>0.01700146223859344</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01750307453072668</v>
+        <v>0.01763059760628002</v>
       </c>
     </row>
     <row r="12">
@@ -1118,49 +1118,49 @@
         <v>102</v>
       </c>
       <c r="D12" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.9901960784313726</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1065069431212171</v>
+        <v>0.09250231417550324</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09084415736809691</v>
+        <v>0.09159542874241007</v>
       </c>
       <c r="J12" t="n">
-        <v>528276.0912988938</v>
+        <v>538620.5426134155</v>
       </c>
       <c r="K12" t="n">
-        <v>201524.0458504469</v>
+        <v>206696.2715077078</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>201524.0458504469</v>
+        <v>206696.2715077078</v>
       </c>
       <c r="N12" t="n">
-        <v>729800.1371493406</v>
+        <v>745316.8141211235</v>
       </c>
       <c r="O12" t="n">
-        <v>10161399.9688</v>
+        <v>10110406.7188</v>
       </c>
       <c r="P12" t="n">
-        <v>9753659.038699998</v>
+        <v>9702665.788699999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01983231114504054</v>
+        <v>0.02044391261959444</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02066137898104204</v>
+        <v>0.02130303939237319</v>
       </c>
     </row>
     <row r="13">
@@ -1176,49 +1176,49 @@
         <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8543689320388349</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8543689320388349</v>
+        <v>0.9902912621359223</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1101170774262103</v>
+        <v>0.09875808338513453</v>
       </c>
       <c r="I13" t="n">
-        <v>0.094080609839869</v>
+        <v>0.09779926704158953</v>
       </c>
       <c r="J13" t="n">
-        <v>595699.0697549444</v>
+        <v>638784.0023400235</v>
       </c>
       <c r="K13" t="n">
-        <v>232637.1150845023</v>
+        <v>254179.5813770418</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>232637.1150845023</v>
+        <v>254179.5813770418</v>
       </c>
       <c r="N13" t="n">
-        <v>828336.1848394468</v>
+        <v>892963.5837170655</v>
       </c>
       <c r="O13" t="n">
-        <v>10536239.823564</v>
+        <v>10480889.176664</v>
       </c>
       <c r="P13" t="n">
-        <v>10128866.665561</v>
+        <v>10073516.018661</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02207970955294848</v>
+        <v>0.02425171920937585</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0229677339791122</v>
+        <v>0.02523245914397504</v>
       </c>
     </row>
     <row r="14">
@@ -1234,49 +1234,49 @@
         <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E14" t="n">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8446601941747572</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8365384615384616</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1155345313075407</v>
+        <v>0.1018639034285131</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09664907907457733</v>
+        <v>0.1018639034285131</v>
       </c>
       <c r="J14" t="n">
-        <v>659315.5951792673</v>
+        <v>719445.6476580924</v>
       </c>
       <c r="K14" t="n">
-        <v>257359.0052028746</v>
+        <v>287424.0314422871</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>257359.0052028746</v>
+        <v>287424.0314422871</v>
       </c>
       <c r="N14" t="n">
-        <v>916674.600382142</v>
+        <v>1006869.67910038</v>
       </c>
       <c r="O14" t="n">
-        <v>10860875.61657092</v>
+        <v>10862870.64886392</v>
       </c>
       <c r="P14" t="n">
-        <v>10452531.26382783</v>
+        <v>10454526.29612083</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02369597206418703</v>
+        <v>0.0264593071880449</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02462169198129975</v>
+        <v>0.02749278382406827</v>
       </c>
     </row>
     <row r="15">
@@ -1295,46 +1295,46 @@
         <v>105</v>
       </c>
       <c r="E15" t="n">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8095238095238095</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1172245253426888</v>
+        <v>0.1034799091691537</v>
       </c>
       <c r="I15" t="n">
-        <v>0.09489604432503375</v>
+        <v>0.1034799091691537</v>
       </c>
       <c r="J15" t="n">
-        <v>678472.9241290929</v>
+        <v>770434.6693487333</v>
       </c>
       <c r="K15" t="n">
-        <v>264363.7059061846</v>
+        <v>310344.5785160048</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>264363.7059061846</v>
+        <v>310344.5785160048</v>
       </c>
       <c r="N15" t="n">
-        <v>942836.6300352775</v>
+        <v>1080779.247864738</v>
       </c>
       <c r="O15" t="n">
-        <v>11360984.84936805</v>
+        <v>11340380.44192984</v>
       </c>
       <c r="P15" t="n">
-        <v>10950290.16604267</v>
+        <v>10929685.75860446</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02326943565292139</v>
+        <v>0.02736632867875746</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02414216444473664</v>
+        <v>0.02839464787646656</v>
       </c>
     </row>
     <row r="16">
@@ -1350,49 +1350,49 @@
         <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8490566037735849</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1134076443070747</v>
+        <v>0.1038456560215263</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09628950931732752</v>
+        <v>0.1038456560215263</v>
       </c>
       <c r="J16" t="n">
-        <v>716159.0169867697</v>
+        <v>810410.2254774929</v>
       </c>
       <c r="K16" t="n">
-        <v>280145.5696502721</v>
+        <v>327271.1738956337</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>280145.5696502721</v>
+        <v>327271.1738956337</v>
       </c>
       <c r="N16" t="n">
-        <v>996304.5866370418</v>
+        <v>1137681.399373127</v>
       </c>
       <c r="O16" t="n">
-        <v>11698901.34244909</v>
+        <v>11677572.73988773</v>
       </c>
       <c r="P16" t="n">
-        <v>11284435.81862395</v>
+        <v>11263107.21606259</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02394631439738472</v>
+        <v>0.02802561638325363</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02482583747677638</v>
+        <v>0.0290569172092142</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -538,49 +538,49 @@
         <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09943492116856165</v>
+        <v>0.09877977698439171</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08286243430713471</v>
+        <v>0.0832849100064479</v>
       </c>
       <c r="J2" t="n">
-        <v>453942.9050599152</v>
+        <v>461132.027355649</v>
       </c>
       <c r="K2" t="n">
-        <v>164357.4527309576</v>
+        <v>167952.0138788245</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>164357.4527309576</v>
+        <v>167952.0138788245</v>
       </c>
       <c r="N2" t="n">
-        <v>618300.3577908728</v>
+        <v>629084.0412344737</v>
       </c>
       <c r="O2" t="n">
-        <v>10015935.0988</v>
+        <v>10240780.2488</v>
       </c>
       <c r="P2" t="n">
-        <v>9608194.168699998</v>
+        <v>9833039.318699999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01640959641907515</v>
+        <v>0.01640031421419328</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01710596703659199</v>
+        <v>0.01708037651791155</v>
       </c>
     </row>
     <row r="3">
@@ -593,52 +593,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8446601941747572</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09776072146367178</v>
+        <v>0.09496116222475419</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08257458997416935</v>
+        <v>0.08152326190993048</v>
       </c>
       <c r="J3" t="n">
-        <v>475461.5553898957</v>
+        <v>486228.6741479071</v>
       </c>
       <c r="K3" t="n">
-        <v>172518.3579019778</v>
+        <v>177901.9172809835</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>172518.3579019778</v>
+        <v>177901.9172809835</v>
       </c>
       <c r="N3" t="n">
-        <v>647979.9132918735</v>
+        <v>664130.5914288907</v>
       </c>
       <c r="O3" t="n">
-        <v>10570506.655464</v>
+        <v>10797211.559364</v>
       </c>
       <c r="P3" t="n">
-        <v>10163133.497461</v>
+        <v>10389838.401361</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01632072742821664</v>
+        <v>0.01647665383815658</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01697491801569636</v>
+        <v>0.01712268376163383</v>
       </c>
     </row>
     <row r="4">
@@ -651,52 +651,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E4" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09666630872252636</v>
+        <v>0.09300393342188501</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08179456891906077</v>
+        <v>0.07935197989206702</v>
       </c>
       <c r="J4" t="n">
-        <v>499772.3434468232</v>
+        <v>512838.5062540149</v>
       </c>
       <c r="K4" t="n">
-        <v>177587.3793366524</v>
+        <v>184120.4607402484</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>177587.3793366524</v>
+        <v>184120.4607402484</v>
       </c>
       <c r="N4" t="n">
-        <v>677359.7227834756</v>
+        <v>696958.9669942633</v>
       </c>
       <c r="O4" t="n">
-        <v>10935308.90212792</v>
+        <v>11361855.35814492</v>
       </c>
       <c r="P4" t="n">
-        <v>10526964.54938483</v>
+        <v>10953511.00540183</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01623981370129338</v>
+        <v>0.01620514035221006</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01686976131662097</v>
+        <v>0.01680926423038673</v>
       </c>
     </row>
     <row r="5">
@@ -709,52 +709,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8454545454545455</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09525529745848933</v>
+        <v>0.09289780249835385</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0816473978215623</v>
+        <v>0.0785408693849719</v>
       </c>
       <c r="J5" t="n">
-        <v>519331.4335515244</v>
+        <v>523961.5408676272</v>
       </c>
       <c r="K5" t="n">
-        <v>184792.9606174003</v>
+        <v>187108.0142754518</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>184792.9606174003</v>
+        <v>187108.0142754518</v>
       </c>
       <c r="N5" t="n">
-        <v>704124.3941689247</v>
+        <v>711069.5551430788</v>
       </c>
       <c r="O5" t="n">
-        <v>11301297.20929176</v>
+        <v>11517660.85818927</v>
       </c>
       <c r="P5" t="n">
-        <v>10890602.52596637</v>
+        <v>11106966.17486389</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0163514822409472</v>
+        <v>0.01624531374722798</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01696811174375338</v>
+        <v>0.01684600559051803</v>
       </c>
     </row>
     <row r="6">
@@ -767,52 +767,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D6" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E6" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8301886792452831</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0962254754163797</v>
+        <v>0.09190722738373355</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0798853003456737</v>
+        <v>0.07795702322727401</v>
       </c>
       <c r="J6" t="n">
-        <v>530251.3219092456</v>
+        <v>548708.848341326</v>
       </c>
       <c r="K6" t="n">
-        <v>187191.7221115101</v>
+        <v>196420.4853275503</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>187191.7221115101</v>
+        <v>196420.4853275503</v>
       </c>
       <c r="N6" t="n">
-        <v>717443.0440207556</v>
+        <v>745129.3336688762</v>
       </c>
       <c r="O6" t="n">
-        <v>11764042.88127051</v>
+        <v>12112094.92793495</v>
       </c>
       <c r="P6" t="n">
-        <v>11349577.35744537</v>
+        <v>11697629.4041098</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01591219311258524</v>
+        <v>0.01621688787086141</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01649327690503925</v>
+        <v>0.01679147787487101</v>
       </c>
     </row>
     <row r="7">
@@ -828,49 +828,49 @@
         <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" t="n">
         <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="G7" t="n">
         <v>0.8529411764705882</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09847934560753153</v>
+        <v>0.09823822539669926</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08409512811622789</v>
+        <v>0.08379142754424349</v>
       </c>
       <c r="J7" t="n">
-        <v>461526.6616369847</v>
+        <v>461915.3705097084</v>
       </c>
       <c r="K7" t="n">
-        <v>168149.3310194924</v>
+        <v>168343.6854558542</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>168149.3310194924</v>
+        <v>168343.6854558542</v>
       </c>
       <c r="N7" t="n">
-        <v>629675.9926564771</v>
+        <v>630259.0559655628</v>
       </c>
       <c r="O7" t="n">
-        <v>10098564.6888</v>
+        <v>10165519.7688</v>
       </c>
       <c r="P7" t="n">
-        <v>9690823.758699998</v>
+        <v>9757778.838699998</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01665081486342128</v>
+        <v>0.01656026344786958</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01735139707483951</v>
+        <v>0.01725225466150062</v>
       </c>
     </row>
     <row r="8">
@@ -883,52 +883,52 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D8" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E8" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8640776699029126</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09664744730659888</v>
+        <v>0.09607362778140782</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08351090107075052</v>
+        <v>0.08247830309535956</v>
       </c>
       <c r="J8" t="n">
-        <v>480378.4435696948</v>
+        <v>493240.0544632261</v>
       </c>
       <c r="K8" t="n">
-        <v>174976.8019918774</v>
+        <v>181407.607438643</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>174976.8019918774</v>
+        <v>181407.607438643</v>
       </c>
       <c r="N8" t="n">
-        <v>655355.2455615721</v>
+        <v>674647.6619018689</v>
       </c>
       <c r="O8" t="n">
-        <v>10549636.406764</v>
+        <v>10801469.936564</v>
       </c>
       <c r="P8" t="n">
-        <v>10142263.248761</v>
+        <v>10394096.778561</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0165860504803454</v>
+        <v>0.01679471484011274</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01725224416880058</v>
+        <v>0.01745294577329862</v>
       </c>
     </row>
     <row r="9">
@@ -941,52 +941,52 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.8623853211009175</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09672223673719484</v>
+        <v>0.09422337361318721</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08370193563795707</v>
+        <v>0.08125685430862017</v>
       </c>
       <c r="J9" t="n">
-        <v>511686.5069044705</v>
+        <v>526514.418027284</v>
       </c>
       <c r="K9" t="n">
-        <v>183544.4610654761</v>
+        <v>190958.4166268829</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>183544.4610654761</v>
+        <v>190958.4166268829</v>
       </c>
       <c r="N9" t="n">
-        <v>695230.9679699468</v>
+        <v>717472.8346541669</v>
       </c>
       <c r="O9" t="n">
-        <v>10895668.70626692</v>
+        <v>11345286.94306092</v>
       </c>
       <c r="P9" t="n">
-        <v>10487324.35352383</v>
+        <v>10936942.59031783</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01684563527155573</v>
+        <v>0.01683151934237134</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01750155281540459</v>
+        <v>0.017459945048622</v>
       </c>
     </row>
     <row r="10">
@@ -999,52 +999,52 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D10" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E10" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09467907571674584</v>
+        <v>0.09389805491180749</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08205519895451308</v>
+        <v>0.08109377469656102</v>
       </c>
       <c r="J10" t="n">
-        <v>524337.9468682207</v>
+        <v>548242.7938357895</v>
       </c>
       <c r="K10" t="n">
-        <v>187296.2172757485</v>
+        <v>199248.6407595329</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>187296.2172757485</v>
+        <v>199248.6407595329</v>
       </c>
       <c r="N10" t="n">
-        <v>711634.1641439691</v>
+        <v>747491.4345953225</v>
       </c>
       <c r="O10" t="n">
-        <v>11320413.25095493</v>
+        <v>11786101.98315275</v>
       </c>
       <c r="P10" t="n">
-        <v>10909718.56762955</v>
+        <v>11375407.29982737</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01654499823669858</v>
+        <v>0.016905389164657</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01716783215943617</v>
+        <v>0.01751573684421451</v>
       </c>
     </row>
     <row r="11">
@@ -1057,52 +1057,52 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D11" t="n">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09657166851730856</v>
+        <v>0.09400854608248253</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08300020599127433</v>
+        <v>0.08141811580357862</v>
       </c>
       <c r="J11" t="n">
-        <v>550804.6883894347</v>
+        <v>574500.8661924924</v>
       </c>
       <c r="K11" t="n">
-        <v>197468.4053516046</v>
+        <v>209316.4942531334</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>197468.4053516046</v>
+        <v>209316.4942531334</v>
       </c>
       <c r="N11" t="n">
-        <v>748273.0937410393</v>
+        <v>783817.3604456257</v>
       </c>
       <c r="O11" t="n">
-        <v>11614789.51518358</v>
+        <v>12106775.67824733</v>
       </c>
       <c r="P11" t="n">
-        <v>11200323.99135843</v>
+        <v>11692310.15442219</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01700146223859344</v>
+        <v>0.01728920232900819</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01763059760628002</v>
+        <v>0.01790206481770133</v>
       </c>
     </row>
     <row r="12">
@@ -1118,49 +1118,49 @@
         <v>102</v>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E12" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9901960784313726</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09250231417550324</v>
+        <v>0.09127332586241999</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09159542874241007</v>
+        <v>0.09127332586241999</v>
       </c>
       <c r="J12" t="n">
-        <v>538620.5426134155</v>
+        <v>544219.5395527922</v>
       </c>
       <c r="K12" t="n">
-        <v>206696.2715077078</v>
+        <v>209495.769977396</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>206696.2715077078</v>
+        <v>209495.769977396</v>
       </c>
       <c r="N12" t="n">
-        <v>745316.8141211235</v>
+        <v>753715.3095301883</v>
       </c>
       <c r="O12" t="n">
-        <v>10110406.7188</v>
+        <v>10316742.6388</v>
       </c>
       <c r="P12" t="n">
-        <v>9702665.788699999</v>
+        <v>9909001.708699998</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02044391261959444</v>
+        <v>0.02030638713323217</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02130303939237319</v>
+        <v>0.02114196526916137</v>
       </c>
     </row>
     <row r="13">
@@ -1173,52 +1173,52 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D13" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E13" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9902912621359223</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09875808338513453</v>
+        <v>0.09717788792471758</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09779926704158953</v>
+        <v>0.09717788792471758</v>
       </c>
       <c r="J13" t="n">
-        <v>638784.0023400235</v>
+        <v>654630.7013274725</v>
       </c>
       <c r="K13" t="n">
-        <v>254179.5813770418</v>
+        <v>262102.9308707663</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>254179.5813770418</v>
+        <v>262102.9308707663</v>
       </c>
       <c r="N13" t="n">
-        <v>892963.5837170655</v>
+        <v>916733.6321982386</v>
       </c>
       <c r="O13" t="n">
-        <v>10480889.176664</v>
+        <v>10760730.661864</v>
       </c>
       <c r="P13" t="n">
-        <v>10073516.018661</v>
+        <v>10353357.503861</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02425171920937585</v>
+        <v>0.02435735444988493</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02523245914397504</v>
+        <v>0.02531574233508523</v>
       </c>
     </row>
     <row r="14">
@@ -1231,13 +1231,13 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E14" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1246,37 +1246,37 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1018639034285131</v>
+        <v>0.09963069641345117</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1018639034285131</v>
+        <v>0.09963069641345117</v>
       </c>
       <c r="J14" t="n">
-        <v>719445.6476580924</v>
+        <v>734817.7333005213</v>
       </c>
       <c r="K14" t="n">
-        <v>287424.0314422871</v>
+        <v>295110.0742635016</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>287424.0314422871</v>
+        <v>295110.0742635016</v>
       </c>
       <c r="N14" t="n">
-        <v>1006869.67910038</v>
+        <v>1029927.807564023</v>
       </c>
       <c r="O14" t="n">
-        <v>10862870.64886392</v>
+        <v>11223740.87971992</v>
       </c>
       <c r="P14" t="n">
-        <v>10454526.29612083</v>
+        <v>10815396.52697683</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0264593071880449</v>
+        <v>0.02629337913500242</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02749278382406827</v>
+        <v>0.02728610768245148</v>
       </c>
     </row>
     <row r="15">
@@ -1289,13 +1289,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D15" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E15" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -1304,37 +1304,37 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1034799091691537</v>
+        <v>0.1015414746775767</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1034799091691537</v>
+        <v>0.1015414746775767</v>
       </c>
       <c r="J15" t="n">
-        <v>770434.6693487333</v>
+        <v>781388.0653614923</v>
       </c>
       <c r="K15" t="n">
-        <v>310344.5785160048</v>
+        <v>315821.2765223843</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>310344.5785160048</v>
+        <v>315821.2765223843</v>
       </c>
       <c r="N15" t="n">
-        <v>1080779.247864738</v>
+        <v>1097209.341883876</v>
       </c>
       <c r="O15" t="n">
-        <v>11340380.44192984</v>
+        <v>11501137.06941152</v>
       </c>
       <c r="P15" t="n">
-        <v>10929685.75860446</v>
+        <v>11090442.38608613</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02736632867875746</v>
+        <v>0.02746000457314296</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02839464787646656</v>
+        <v>0.02847688717256292</v>
       </c>
     </row>
     <row r="16">
@@ -1347,13 +1347,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D16" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E16" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1362,37 +1362,37 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1038456560215263</v>
+        <v>0.1022024053100728</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1038456560215263</v>
+        <v>0.1022024053100728</v>
       </c>
       <c r="J16" t="n">
-        <v>810410.2254774929</v>
+        <v>827577.8738163244</v>
       </c>
       <c r="K16" t="n">
-        <v>327271.1738956337</v>
+        <v>335854.9980650494</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>327271.1738956337</v>
+        <v>335854.9980650494</v>
       </c>
       <c r="N16" t="n">
-        <v>1137681.399373127</v>
+        <v>1163432.871881374</v>
       </c>
       <c r="O16" t="n">
-        <v>11677572.73988773</v>
+        <v>11926849.94239386</v>
       </c>
       <c r="P16" t="n">
-        <v>11263107.21606259</v>
+        <v>11512384.41856872</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02802561638325363</v>
+        <v>0.02815957270253366</v>
       </c>
       <c r="R16" t="n">
-        <v>0.0290569172092142</v>
+        <v>0.02917336546921916</v>
       </c>
     </row>
   </sheetData>

--- a/projection_results_all_summaries.xlsx
+++ b/projection_results_all_summaries.xlsx
@@ -535,52 +535,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>9478</v>
       </c>
       <c r="D2" t="n">
-        <v>102</v>
+        <v>9456</v>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>8369</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8850465313028765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8431372549019608</v>
+        <v>0.8829921924456636</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09877977698439171</v>
+        <v>0.09597596898787557</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0832849100064479</v>
+        <v>0.08474603127870128</v>
       </c>
       <c r="J2" t="n">
-        <v>461132.027355649</v>
+        <v>41011357.62888187</v>
       </c>
       <c r="K2" t="n">
-        <v>167952.0138788245</v>
+        <v>14306014.57377693</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>167952.0138788245</v>
+        <v>14306014.57377693</v>
       </c>
       <c r="N2" t="n">
-        <v>629084.0412344737</v>
+        <v>55317372.20265881</v>
       </c>
       <c r="O2" t="n">
-        <v>10240780.2488</v>
+        <v>812856555.5672001</v>
       </c>
       <c r="P2" t="n">
-        <v>9833039.318699999</v>
+        <v>793677941.7132001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01640031421419328</v>
+        <v>0.01759967915100887</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01708037651791155</v>
+        <v>0.01802496179104659</v>
       </c>
     </row>
     <row r="3">
@@ -593,52 +593,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>106</v>
+        <v>9762</v>
       </c>
       <c r="D3" t="n">
-        <v>106</v>
+        <v>9743</v>
       </c>
       <c r="E3" t="n">
-        <v>91</v>
+        <v>8661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8889459098840193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8872157344806392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09496116222475419</v>
+        <v>0.09352092230585833</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08152326190993048</v>
+        <v>0.08297323377289889</v>
       </c>
       <c r="J3" t="n">
-        <v>486228.6741479071</v>
+        <v>43255456.65684056</v>
       </c>
       <c r="K3" t="n">
-        <v>177901.9172809835</v>
+        <v>15158002.11521988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>177901.9172809835</v>
+        <v>15158002.11521988</v>
       </c>
       <c r="N3" t="n">
-        <v>664130.5914288907</v>
+        <v>58413458.77206045</v>
       </c>
       <c r="O3" t="n">
-        <v>10797211.559364</v>
+        <v>868756639.5402131</v>
       </c>
       <c r="P3" t="n">
-        <v>10389838.401361</v>
+        <v>848873415.5163431</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01647665383815658</v>
+        <v>0.01744792664058626</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01712268376163383</v>
+        <v>0.01785661070090143</v>
       </c>
     </row>
     <row r="4">
@@ -651,52 +651,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>109</v>
+        <v>10048</v>
       </c>
       <c r="D4" t="n">
-        <v>109</v>
+        <v>10026</v>
       </c>
       <c r="E4" t="n">
-        <v>93</v>
+        <v>8905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.8881907041691602</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.8862460191082803</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09300393342188501</v>
+        <v>0.09177983476932886</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07935197989206702</v>
+        <v>0.08133951319873342</v>
       </c>
       <c r="J4" t="n">
-        <v>512838.5062540149</v>
+        <v>45461625.99696768</v>
       </c>
       <c r="K4" t="n">
-        <v>184120.4607402484</v>
+        <v>15941015.34003143</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>184120.4607402484</v>
+        <v>15941015.34003143</v>
       </c>
       <c r="N4" t="n">
-        <v>696958.9669942633</v>
+        <v>61402641.33699911</v>
       </c>
       <c r="O4" t="n">
-        <v>11361855.35814492</v>
+        <v>923597016.4015658</v>
       </c>
       <c r="P4" t="n">
-        <v>10953511.00540183</v>
+        <v>902839601.727118</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01620514035221006</v>
+        <v>0.01725970857088664</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01680926423038673</v>
+        <v>0.01765653091594179</v>
       </c>
     </row>
     <row r="5">
@@ -709,52 +709,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>110</v>
+        <v>10340</v>
       </c>
       <c r="D5" t="n">
-        <v>109</v>
+        <v>10303</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>9132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8532110091743119</v>
+        <v>0.8863437833640687</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8454545454545455</v>
+        <v>0.8831721470019342</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09289780249835385</v>
+        <v>0.09026420469662112</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0785408693849719</v>
+        <v>0.07971883145933695</v>
       </c>
       <c r="J5" t="n">
-        <v>523961.5408676272</v>
+        <v>47924844.26765846</v>
       </c>
       <c r="K5" t="n">
-        <v>187108.0142754518</v>
+        <v>16839396.97316202</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>187108.0142754518</v>
+        <v>16839396.97316202</v>
       </c>
       <c r="N5" t="n">
-        <v>711069.5551430788</v>
+        <v>64764241.24082048</v>
       </c>
       <c r="O5" t="n">
-        <v>11517660.85818927</v>
+        <v>981614581.1341684</v>
       </c>
       <c r="P5" t="n">
-        <v>11106966.17486389</v>
+        <v>958614956.0512464</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01624531374722798</v>
+        <v>0.01715479506600808</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01684600559051803</v>
+        <v>0.01756638248429519</v>
       </c>
     </row>
     <row r="6">
@@ -767,52 +767,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>112</v>
+        <v>10667</v>
       </c>
       <c r="D6" t="n">
-        <v>112</v>
+        <v>10640</v>
       </c>
       <c r="E6" t="n">
-        <v>95</v>
+        <v>9432</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.8864661654135338</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8482142857142857</v>
+        <v>0.8842223680509984</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09190722738373355</v>
+        <v>0.08827800578727582</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07795702322727401</v>
+        <v>0.07805738732404476</v>
       </c>
       <c r="J6" t="n">
-        <v>548708.848341326</v>
+        <v>50668659.16144493</v>
       </c>
       <c r="K6" t="n">
-        <v>196420.4853275503</v>
+        <v>17839816.11902389</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>196420.4853275503</v>
+        <v>17839816.11902389</v>
       </c>
       <c r="N6" t="n">
-        <v>745129.3336688762</v>
+        <v>68508475.28046882</v>
       </c>
       <c r="O6" t="n">
-        <v>12112094.92793495</v>
+        <v>1049528624.192984</v>
       </c>
       <c r="P6" t="n">
-        <v>11697629.4041098</v>
+        <v>1025805590.179856</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01621688787086141</v>
+        <v>0.01699793193610273</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01679147787487101</v>
+        <v>0.01739103031783636</v>
       </c>
     </row>
     <row r="7">
@@ -825,52 +825,52 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>102</v>
+        <v>9478</v>
       </c>
       <c r="D7" t="n">
-        <v>102</v>
+        <v>9454</v>
       </c>
       <c r="E7" t="n">
-        <v>87</v>
+        <v>8552</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.9045906494605458</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8529411764705882</v>
+        <v>0.9023000633044946</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09823822539669926</v>
+        <v>0.09509490102641401</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08379142754424349</v>
+        <v>0.08582945701391566</v>
       </c>
       <c r="J7" t="n">
-        <v>461915.3705097084</v>
+        <v>41871748.61682985</v>
       </c>
       <c r="K7" t="n">
-        <v>168343.6854558542</v>
+        <v>14736210.06775092</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>168343.6854558542</v>
+        <v>14736210.06775092</v>
       </c>
       <c r="N7" t="n">
-        <v>630259.0559655628</v>
+        <v>56607958.68458077</v>
       </c>
       <c r="O7" t="n">
-        <v>10165519.7688</v>
+        <v>817193256.2772001</v>
       </c>
       <c r="P7" t="n">
-        <v>9757778.838699998</v>
+        <v>797814518.5032001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01656026344786958</v>
+        <v>0.01803271130122035</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01725225466150062</v>
+        <v>0.0184707218607627</v>
       </c>
     </row>
     <row r="8">
@@ -883,52 +883,52 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>106</v>
+        <v>9764</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>9740</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>8841</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.907700205338809</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.9054690700532568</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09607362778140782</v>
+        <v>0.09318518303774719</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08247830309535956</v>
+        <v>0.08440088111805848</v>
       </c>
       <c r="J8" t="n">
-        <v>493240.0544632261</v>
+        <v>44278388.44033591</v>
       </c>
       <c r="K8" t="n">
-        <v>181407.607438643</v>
+        <v>15669468.00696756</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>181407.607438643</v>
+        <v>15669468.00696756</v>
       </c>
       <c r="N8" t="n">
-        <v>674647.6619018689</v>
+        <v>59947856.44730347</v>
       </c>
       <c r="O8" t="n">
-        <v>10801469.936564</v>
+        <v>866217456.3869131</v>
       </c>
       <c r="P8" t="n">
-        <v>10394096.778561</v>
+        <v>846193941.7348431</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01679471484011274</v>
+        <v>0.01808953155057231</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01745294577329862</v>
+        <v>0.01851758472158575</v>
       </c>
     </row>
     <row r="9">
@@ -941,52 +941,52 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>109</v>
+        <v>10042</v>
       </c>
       <c r="D9" t="n">
-        <v>109</v>
+        <v>10027</v>
       </c>
       <c r="E9" t="n">
-        <v>94</v>
+        <v>9131</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.910641268574848</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8623853211009175</v>
+        <v>0.9092810197171878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09422337361318721</v>
+        <v>0.0918294128663809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08125685430862017</v>
+        <v>0.08351367943466678</v>
       </c>
       <c r="J9" t="n">
-        <v>526514.418027284</v>
+        <v>47517624.66176366</v>
       </c>
       <c r="K9" t="n">
-        <v>190958.4166268829</v>
+        <v>16969014.67242942</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>190958.4166268829</v>
+        <v>16969014.67242942</v>
       </c>
       <c r="N9" t="n">
-        <v>717472.8346541669</v>
+        <v>64486639.33419308</v>
       </c>
       <c r="O9" t="n">
-        <v>11345286.94306092</v>
+        <v>926735018.4242668</v>
       </c>
       <c r="P9" t="n">
-        <v>10936942.59031783</v>
+        <v>906466055.975973</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01683151934237134</v>
+        <v>0.01831053573575102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.017459945048622</v>
+        <v>0.0187199670197901</v>
       </c>
     </row>
     <row r="10">
@@ -999,52 +999,52 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>110</v>
+        <v>10325</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>10298</v>
       </c>
       <c r="E10" t="n">
-        <v>95</v>
+        <v>9404</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9131870266071082</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9107990314769976</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09389805491180749</v>
+        <v>0.09067876875608344</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08109377469656102</v>
+        <v>0.08261628487963281</v>
       </c>
       <c r="J10" t="n">
-        <v>548242.7938357895</v>
+        <v>50835217.98122857</v>
       </c>
       <c r="K10" t="n">
-        <v>199248.6407595329</v>
+        <v>18294583.82994707</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>199248.6407595329</v>
+        <v>18294583.82994707</v>
       </c>
       <c r="N10" t="n">
-        <v>747491.4345953225</v>
+        <v>69129801.81117564</v>
       </c>
       <c r="O10" t="n">
-        <v>11786101.98315275</v>
+        <v>982952967.4198503</v>
       </c>
       <c r="P10" t="n">
-        <v>11375407.29982737</v>
+        <v>962400924.913815</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.016905389164657</v>
+        <v>0.01861186082785676</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01751573684421451</v>
+        <v>0.01900931655025725</v>
       </c>
     </row>
     <row r="11">
@@ -1057,52 +1057,52 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>112</v>
+        <v>10639</v>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>10615</v>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>9724</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8660714285714286</v>
+        <v>0.9160621761658031</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8660714285714286</v>
+        <v>0.9139956762853652</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09400854608248253</v>
+        <v>0.08959285875955238</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08141811580357862</v>
+        <v>0.08191004404341455</v>
       </c>
       <c r="J11" t="n">
-        <v>574500.8661924924</v>
+        <v>54617108.1983126</v>
       </c>
       <c r="K11" t="n">
-        <v>209316.4942531334</v>
+        <v>19814040.63745773</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>209316.4942531334</v>
+        <v>19814040.63745773</v>
       </c>
       <c r="N11" t="n">
-        <v>783817.3604456257</v>
+        <v>74431148.83577034</v>
       </c>
       <c r="O11" t="n">
-        <v>12106775.67824733</v>
+        <v>1044291442.661237</v>
       </c>
       <c r="P11" t="n">
-        <v>11692310.15442219</v>
+        <v>1022775193.783701</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01728920232900819</v>
+        <v>0.01897366944515441</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01790206481770133</v>
+        <v>0.01937282088760557</v>
       </c>
     </row>
     <row r="12">
@@ -1115,52 +1115,52 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>9478</v>
       </c>
       <c r="D12" t="n">
-        <v>102</v>
+        <v>9456</v>
       </c>
       <c r="E12" t="n">
-        <v>102</v>
+        <v>9456</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9976788351972991</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09127332586241999</v>
+        <v>0.09258994317483452</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09127332586241999</v>
+        <v>0.092375026657653</v>
       </c>
       <c r="J12" t="n">
-        <v>544219.5395527922</v>
+        <v>47112440.0389384</v>
       </c>
       <c r="K12" t="n">
-        <v>209495.769977396</v>
+        <v>17356555.7788052</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>209495.769977396</v>
+        <v>17356555.7788052</v>
       </c>
       <c r="N12" t="n">
-        <v>753715.3095301883</v>
+        <v>64468995.81774361</v>
       </c>
       <c r="O12" t="n">
-        <v>10316742.6388</v>
+        <v>813109489.4172001</v>
       </c>
       <c r="P12" t="n">
-        <v>9909001.708699998</v>
+        <v>794833158.7732</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.02030638713323217</v>
+        <v>0.02134590237194943</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02114196526916137</v>
+        <v>0.02183672835893573</v>
       </c>
     </row>
     <row r="13">
@@ -1173,52 +1173,52 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>106</v>
+        <v>9762</v>
       </c>
       <c r="D13" t="n">
-        <v>106</v>
+        <v>9738</v>
       </c>
       <c r="E13" t="n">
-        <v>106</v>
+        <v>9738</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.9975414874001229</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09717788792471758</v>
+        <v>0.09761071208907925</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09717788792471758</v>
+        <v>0.09737073492352527</v>
       </c>
       <c r="J13" t="n">
-        <v>654630.7013274725</v>
+        <v>55505811.34755692</v>
       </c>
       <c r="K13" t="n">
-        <v>262102.9308707663</v>
+        <v>21282186.73698258</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>262102.9308707663</v>
+        <v>21282186.73698258</v>
       </c>
       <c r="N13" t="n">
-        <v>916733.6321982386</v>
+        <v>76787998.0845395</v>
       </c>
       <c r="O13" t="n">
-        <v>10760730.661864</v>
+        <v>863794315.9995871</v>
       </c>
       <c r="P13" t="n">
-        <v>10353357.503861</v>
+        <v>845379885.828617</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02435735444988493</v>
+        <v>0.0246380259082334</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02531574233508523</v>
+        <v>0.0251747020407546</v>
       </c>
     </row>
     <row r="14">
@@ -1231,52 +1231,52 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>108</v>
+        <v>10046</v>
       </c>
       <c r="D14" t="n">
-        <v>108</v>
+        <v>10024</v>
       </c>
       <c r="E14" t="n">
-        <v>108</v>
+        <v>10024</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9978100736611587</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09963069641345117</v>
+        <v>0.1008389917673471</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09963069641345117</v>
+        <v>0.1006181618032936</v>
       </c>
       <c r="J14" t="n">
-        <v>734817.7333005213</v>
+        <v>62994171.20052955</v>
       </c>
       <c r="K14" t="n">
-        <v>295110.0742635016</v>
+        <v>24707287.94181236</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>295110.0742635016</v>
+        <v>24707287.94181236</v>
       </c>
       <c r="N14" t="n">
-        <v>1029927.807564023</v>
+        <v>87701459.1423419</v>
       </c>
       <c r="O14" t="n">
-        <v>11223740.87971992</v>
+        <v>916693029.3738154</v>
       </c>
       <c r="P14" t="n">
-        <v>10815396.52697683</v>
+        <v>897970254.2003546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.02629337913500242</v>
+        <v>0.02695262988820771</v>
       </c>
       <c r="R14" t="n">
-        <v>0.02728610768245148</v>
+        <v>0.02751459508401454</v>
       </c>
     </row>
     <row r="15">
@@ -1289,52 +1289,52 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>109</v>
+        <v>10337</v>
       </c>
       <c r="D15" t="n">
-        <v>109</v>
+        <v>10309</v>
       </c>
       <c r="E15" t="n">
-        <v>109</v>
+        <v>10309</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.9972912837380284</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1015414746775767</v>
+        <v>0.1007746111987947</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1015414746775767</v>
+        <v>0.1005016413706467</v>
       </c>
       <c r="J15" t="n">
-        <v>781388.0653614923</v>
+        <v>67918402.13472392</v>
       </c>
       <c r="K15" t="n">
-        <v>315821.2765223843</v>
+        <v>26836175.90669475</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>315821.2765223843</v>
+        <v>26836175.90669475</v>
       </c>
       <c r="N15" t="n">
-        <v>1097209.341883876</v>
+        <v>94754578.04141869</v>
       </c>
       <c r="O15" t="n">
-        <v>11501137.06941152</v>
+        <v>969816544.9170408</v>
       </c>
       <c r="P15" t="n">
-        <v>11090442.38608613</v>
+        <v>951407665.5136355</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02746000457314296</v>
+        <v>0.02767139419032117</v>
       </c>
       <c r="R15" t="n">
-        <v>0.02847688717256292</v>
+        <v>0.02820681068635992</v>
       </c>
     </row>
     <row r="16">
@@ -1347,52 +1347,52 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110</v>
+        <v>10656</v>
       </c>
       <c r="D16" t="n">
-        <v>110</v>
+        <v>10631</v>
       </c>
       <c r="E16" t="n">
-        <v>110</v>
+        <v>10631</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.9976539039039038</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1022024053100728</v>
+        <v>0.1002504979019584</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1022024053100728</v>
+        <v>0.1000153006001989</v>
       </c>
       <c r="J16" t="n">
-        <v>827577.8738163244</v>
+        <v>73124236.81502223</v>
       </c>
       <c r="K16" t="n">
-        <v>335854.9980650494</v>
+        <v>29067604.94581254</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>335854.9980650494</v>
+        <v>29067604.94581254</v>
       </c>
       <c r="N16" t="n">
-        <v>1163432.871881374</v>
+        <v>102191841.7608348</v>
       </c>
       <c r="O16" t="n">
-        <v>11926849.94239386</v>
+        <v>1033114253.054143</v>
       </c>
       <c r="P16" t="n">
-        <v>11512384.41856872</v>
+        <v>1014594770.022316</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02815957270253366</v>
+        <v>0.02813590545274296</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02917336546921916</v>
+        <v>0.02864947248365294</v>
       </c>
     </row>
   </sheetData>
